--- a/ODQBusinessHierarchy.xlsx
+++ b/ODQBusinessHierarchy.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Combined" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -5602,13 +5602,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>2.001</t>
+    <t>1</t>
   </si>
   <si>
     <t>Advanced Supply Chain Planning</t>
   </si>
   <si>
-    <t>2.001.001</t>
+    <t>1.1</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -5617,13 +5617,13 @@
     <t>A1</t>
   </si>
   <si>
-    <t>2.001.001.001</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">Review and Adjust Forecast (Increase) </t>
   </si>
   <si>
-    <t>2.001.002</t>
+    <t>1.2</t>
   </si>
   <si>
     <t>Plan Refresh</t>
@@ -5632,7 +5632,7 @@
     <t>A4</t>
   </si>
   <si>
-    <t>2.001.002.001</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Check Exception Messages</t>
@@ -5641,7 +5641,7 @@
     <t>A3</t>
   </si>
   <si>
-    <t>2.001.002.002</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Check Automatic Sales Order Creation</t>
@@ -5650,7 +5650,7 @@
     <t>A2</t>
   </si>
   <si>
-    <t>2.001.002.003</t>
+    <t>1.2.3</t>
   </si>
   <si>
     <t>Check Plan run</t>
@@ -5659,13 +5659,13 @@
     <t>A78</t>
   </si>
   <si>
-    <t>2.001.002.004</t>
+    <t>1.2.4</t>
   </si>
   <si>
     <t xml:space="preserve">Launch Refresh Cycle </t>
   </si>
   <si>
-    <t>2.001.003</t>
+    <t>1.3</t>
   </si>
   <si>
     <t>Harmonize</t>
@@ -5674,7 +5674,7 @@
     <t>A32</t>
   </si>
   <si>
-    <t>2.001.003.001</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Harmonize Master Distribution Plan (Centrally Planned)</t>
@@ -5683,7 +5683,7 @@
     <t>A33</t>
   </si>
   <si>
-    <t>2.001.003.002</t>
+    <t>1.3.2</t>
   </si>
   <si>
     <t>Harmonize Master Distribution Plan (Non Centrally Planned)</t>
@@ -5692,7 +5692,7 @@
     <t>A35</t>
   </si>
   <si>
-    <t>2.001.003.003</t>
+    <t>1.3.3</t>
   </si>
   <si>
     <t>Harmonize Master Packaging Plan (Late Sales Orders and Forecasts)</t>
@@ -5701,7 +5701,7 @@
     <t>A34</t>
   </si>
   <si>
-    <t>2.001.003.004</t>
+    <t>1.3.4</t>
   </si>
   <si>
     <t>Harmonize Master Packaging Plan (Simulations)</t>
@@ -5710,7 +5710,7 @@
     <t>A40</t>
   </si>
   <si>
-    <t>2.001.003.005</t>
+    <t>1.3.5</t>
   </si>
   <si>
     <t>Harmonize Master Bulk Plan (Capacity issues)</t>
@@ -5719,7 +5719,7 @@
     <t>A41</t>
   </si>
   <si>
-    <t>2.001.003.006</t>
+    <t>1.3.6</t>
   </si>
   <si>
     <t>Harmonize Master Bulk Plan (Analyze and Re plan Supply)</t>
@@ -5728,7 +5728,7 @@
     <t>A70</t>
   </si>
   <si>
-    <t>2.001.003.007</t>
+    <t>1.3.7</t>
   </si>
   <si>
     <t>Harmonize Master Distribution Plan (late Sales Orders and Forecasts)_Part1</t>
@@ -5737,7 +5737,7 @@
     <t>A71</t>
   </si>
   <si>
-    <t>2.001.003.008</t>
+    <t>1.3.8</t>
   </si>
   <si>
     <t>Harmonize Master Distribution Plan (late Sales Orders and Forecasts)_Part2</t>
@@ -5746,7 +5746,7 @@
     <t>A72</t>
   </si>
   <si>
-    <t>2.001.003.009</t>
+    <t>1.3.9</t>
   </si>
   <si>
     <t>Harmonize Master Distribution Plan (late Sales Orders and Forecasts)_Part3</t>
@@ -5755,7 +5755,7 @@
     <t>A73</t>
   </si>
   <si>
-    <t>2.001.003.010</t>
+    <t>1.3.10</t>
   </si>
   <si>
     <t>Harmonize Master Distribution Plan (Analyze and Re plan Supply)_part1</t>
@@ -5764,7 +5764,7 @@
     <t>A74</t>
   </si>
   <si>
-    <t>2.001.003.011</t>
+    <t>1.3.11</t>
   </si>
   <si>
     <t>Harmonize Master Distribution Plan (Analyze and Re plan Supply)_part2</t>
@@ -5773,7 +5773,7 @@
     <t>A75</t>
   </si>
   <si>
-    <t>2.001.003.012</t>
+    <t>1.3.12</t>
   </si>
   <si>
     <t>Harmonize Master Distribution Plan (Analyze and Re plan Supply)_part3</t>
@@ -5782,7 +5782,7 @@
     <t>A76</t>
   </si>
   <si>
-    <t>2.001.003.013</t>
+    <t>1.3.13</t>
   </si>
   <si>
     <t>Harmonize Master Distribution Plan (Analyze and Re plan Supply)_part4</t>
@@ -5791,7 +5791,7 @@
     <t>A43</t>
   </si>
   <si>
-    <t>2.001.003.014</t>
+    <t>1.3.14</t>
   </si>
   <si>
     <t>Harmonize Master Material Plan (Analyze and Re plan Supply)</t>
@@ -5800,13 +5800,13 @@
     <t>A30</t>
   </si>
   <si>
-    <t>2.001.003.015</t>
+    <t>1.3.15</t>
   </si>
   <si>
     <t xml:space="preserve">Harmonize Master Distribution Plan (late Sales Orders and Forecasts) </t>
   </si>
   <si>
-    <t>2.001.004</t>
+    <t>1.4</t>
   </si>
   <si>
     <t>Release</t>
@@ -5815,13 +5815,13 @@
     <t>A29</t>
   </si>
   <si>
-    <t>2.001.004.001</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t xml:space="preserve">Turn Purchase Order Proposals into Intercompany Transactions (Bulk from FGMBH to FICSA) </t>
   </si>
   <si>
-    <t>2.001.005</t>
+    <t>1.5</t>
   </si>
   <si>
     <t>Maintain Demand</t>
@@ -5830,13 +5830,13 @@
     <t>A15</t>
   </si>
   <si>
-    <t>2.001.005.001</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t xml:space="preserve">Customer Ship-to Default Information </t>
   </si>
   <si>
-    <t>2.001.006</t>
+    <t>1.6</t>
   </si>
   <si>
     <t>Maintain Production Information</t>
@@ -5845,7 +5845,7 @@
     <t>A6</t>
   </si>
   <si>
-    <t>2.001.006.001</t>
+    <t>1.6.1</t>
   </si>
   <si>
     <t>Maintain Production Planning Parameters (Customer Ship-to MRSL)</t>
@@ -5854,7 +5854,7 @@
     <t>A7</t>
   </si>
   <si>
-    <t>2.001.006.002</t>
+    <t>1.6.2</t>
   </si>
   <si>
     <t>Maintain Production Planning Parameters (Customer Item MRSL)</t>
@@ -5863,13 +5863,13 @@
     <t>A8</t>
   </si>
   <si>
-    <t>2.001.006.003</t>
+    <t>1.6.3</t>
   </si>
   <si>
     <t xml:space="preserve">Maintain Production Planning Parameters (SO Line MRSL) </t>
   </si>
   <si>
-    <t>2.001.007</t>
+    <t>1.7</t>
   </si>
   <si>
     <t>Maintain Purchasing Information</t>
@@ -5878,13 +5878,13 @@
     <t>A5</t>
   </si>
   <si>
-    <t>2.001.007.001</t>
+    <t>1.7.1</t>
   </si>
   <si>
     <t xml:space="preserve">Maintain Purchasing Item Planning Parameters (Supplier Calendar) </t>
   </si>
   <si>
-    <t>2.001.007.002</t>
+    <t>1.7.2</t>
   </si>
   <si>
     <t>Maintain Sourcing Rules</t>
@@ -5893,7 +5893,7 @@
     <t>A9</t>
   </si>
   <si>
-    <t>2.001.007.003</t>
+    <t>1.7.3</t>
   </si>
   <si>
     <t>Maintain Sourcing Rules (Sourcing Category Value)</t>
@@ -5902,7 +5902,7 @@
     <t>A10</t>
   </si>
   <si>
-    <t>2.001.007.004</t>
+    <t>1.7.4</t>
   </si>
   <si>
     <t>Maintain Sourcing Rules (Buy Sourcing Rule)</t>
@@ -5911,7 +5911,7 @@
     <t>A11</t>
   </si>
   <si>
-    <t>2.001.007.005</t>
+    <t>1.7.5</t>
   </si>
   <si>
     <t>Maintain Sourcing Rules (Transfer Sourcing Rule)</t>
@@ -5920,7 +5920,7 @@
     <t>A12</t>
   </si>
   <si>
-    <t>2.001.007.006</t>
+    <t>1.7.6</t>
   </si>
   <si>
     <t>Maintain Sourcing Rules (SR/BOD) assignments</t>
@@ -5929,7 +5929,7 @@
     <t>A13</t>
   </si>
   <si>
-    <t>2.001.007.007</t>
+    <t>1.7.7</t>
   </si>
   <si>
     <t xml:space="preserve">Maintain Sourcing Rules (SR In transit Lead Time) </t>
@@ -5938,13 +5938,13 @@
     <t>B</t>
   </si>
   <si>
-    <t>2.002</t>
+    <t>2</t>
   </si>
   <si>
     <t>Process Manufacturing</t>
   </si>
   <si>
-    <t>2.002.001</t>
+    <t>2.1</t>
   </si>
   <si>
     <t>Production Batch Creation</t>
@@ -5953,7 +5953,7 @@
     <t>B11</t>
   </si>
   <si>
-    <t>2.002.001.001</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Create a Production Batch Manually</t>
@@ -5962,7 +5962,7 @@
     <t>B12</t>
   </si>
   <si>
-    <t>2.002.001.002</t>
+    <t>2.1.2</t>
   </si>
   <si>
     <t>Create a Production Batch from ASCP</t>
@@ -5971,7 +5971,7 @@
     <t>B13</t>
   </si>
   <si>
-    <t>2.002.001.003</t>
+    <t>2.1.3</t>
   </si>
   <si>
     <t>Scale a Production Batch</t>
@@ -5980,7 +5980,7 @@
     <t>B14</t>
   </si>
   <si>
-    <t>2.002.001.004</t>
+    <t>2.1.4</t>
   </si>
   <si>
     <t>Cancel a Production Batch</t>
@@ -5989,7 +5989,7 @@
     <t>B15</t>
   </si>
   <si>
-    <t>2.002.001.005</t>
+    <t>2.1.5</t>
   </si>
   <si>
     <t>Reschedule a Production Batch</t>
@@ -5998,7 +5998,7 @@
     <t>B16</t>
   </si>
   <si>
-    <t>2.002.001.006</t>
+    <t>2.1.6</t>
   </si>
   <si>
     <t>Perform an Automatic Detailed Reservation</t>
@@ -6007,7 +6007,7 @@
     <t>B17</t>
   </si>
   <si>
-    <t>2.002.001.007</t>
+    <t>2.1.7</t>
   </si>
   <si>
     <t>Perform a Manual Detailed Reservation</t>
@@ -6016,7 +6016,7 @@
     <t>B20</t>
   </si>
   <si>
-    <t>2.002.001.008</t>
+    <t>2.1.8</t>
   </si>
   <si>
     <t>Create Pending Product Lots Manually</t>
@@ -6025,7 +6025,7 @@
     <t>B21</t>
   </si>
   <si>
-    <t>2.002.001.009</t>
+    <t>2.1.9</t>
   </si>
   <si>
     <t>Request a Pick List Report</t>
@@ -6034,7 +6034,7 @@
     <t>B22</t>
   </si>
   <si>
-    <t>2.002.001.010</t>
+    <t>2.1.10</t>
   </si>
   <si>
     <t>Send Picking Order to Sattstore for FICSA Warehouse</t>
@@ -6043,13 +6043,13 @@
     <t>B64</t>
   </si>
   <si>
-    <t>2.002.001.011</t>
+    <t>2.1.11</t>
   </si>
   <si>
     <t>Lot Inquiry</t>
   </si>
   <si>
-    <t>2.002.002</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Automatic Lot numbering Generation</t>
@@ -6058,7 +6058,7 @@
     <t>B18</t>
   </si>
   <si>
-    <t>2.002.002.001</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>Automatic Lot Numbering for Finished Goods (1</t>
@@ -6067,7 +6067,7 @@
     <t>B59</t>
   </si>
   <si>
-    <t>2.002.002.002</t>
+    <t>2.2.2</t>
   </si>
   <si>
     <t>Manufacturing Pentasa (Parent lot) =&gt; F12345#1</t>
@@ -6076,7 +6076,7 @@
     <t>B61</t>
   </si>
   <si>
-    <t>2.002.002.003</t>
+    <t>2.2.3</t>
   </si>
   <si>
     <t>Semi-Manual L ot Numbering for Semi-Finished (Step 2) =&gt; F12345A#1</t>
@@ -6085,13 +6085,13 @@
     <t>B62</t>
   </si>
   <si>
-    <t>2.002.002.004</t>
+    <t>2.2.4</t>
   </si>
   <si>
     <t>Automatic Lot Numbering for Finished Goods (minimum 2</t>
   </si>
   <si>
-    <t>2.002.003</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Production Batch Execution</t>
@@ -6100,7 +6100,7 @@
     <t>B23</t>
   </si>
   <si>
-    <t>2.002.003.001</t>
+    <t>2.3.1</t>
   </si>
   <si>
     <t>Release Batch to WIP</t>
@@ -6109,7 +6109,7 @@
     <t>B24</t>
   </si>
   <si>
-    <t>2.002.003.002</t>
+    <t>2.3.2</t>
   </si>
   <si>
     <t>Print Loading Unit Labels via Pallet Form</t>
@@ -6118,7 +6118,7 @@
     <t>B27</t>
   </si>
   <si>
-    <t>2.002.003.003</t>
+    <t>2.3.3</t>
   </si>
   <si>
     <t>Execute Material Transaction</t>
@@ -6127,7 +6127,7 @@
     <t>B19</t>
   </si>
   <si>
-    <t>2.002.003.004</t>
+    <t>2.3.4</t>
   </si>
   <si>
     <t>Enter lot Manufacturing Date</t>
@@ -6136,7 +6136,7 @@
     <t>B28</t>
   </si>
   <si>
-    <t>2.002.003.005</t>
+    <t>2.3.5</t>
   </si>
   <si>
     <t>Print Pallet labels via Pallet Form</t>
@@ -6145,7 +6145,7 @@
     <t>B29</t>
   </si>
   <si>
-    <t>2.002.003.006</t>
+    <t>2.3.6</t>
   </si>
   <si>
     <t>Complete and Close the Production Batch</t>
@@ -6154,7 +6154,7 @@
     <t>B30</t>
   </si>
   <si>
-    <t>2.002.003.007</t>
+    <t>2.3.7</t>
   </si>
   <si>
     <t>Review Material Transaction (Four Eye Validation)</t>
@@ -6163,7 +6163,7 @@
     <t>B31</t>
   </si>
   <si>
-    <t>2.002.003.008</t>
+    <t>2.3.8</t>
   </si>
   <si>
     <t>Re-Open Closed Batch</t>
@@ -6172,7 +6172,7 @@
     <t>B32</t>
   </si>
   <si>
-    <t>2.002.003.009</t>
+    <t>2.3.9</t>
   </si>
   <si>
     <t>Unrelease a Batch</t>
@@ -6181,7 +6181,7 @@
     <t>B33</t>
   </si>
   <si>
-    <t>2.002.003.010</t>
+    <t>2.3.10</t>
   </si>
   <si>
     <t>Terminate a Batch</t>
@@ -6190,7 +6190,7 @@
     <t>B65</t>
   </si>
   <si>
-    <t>2.002.003.011</t>
+    <t>2.3.11</t>
   </si>
   <si>
     <t>Request of ingredient from Production (Incremental Picking)</t>
@@ -6199,7 +6199,7 @@
     <t>B66</t>
   </si>
   <si>
-    <t>2.002.003.012</t>
+    <t>2.3.12</t>
   </si>
   <si>
     <t>Correction Material Transaction</t>
@@ -6208,7 +6208,7 @@
     <t>B67</t>
   </si>
   <si>
-    <t>2.002.003.013</t>
+    <t>2.3.13</t>
   </si>
   <si>
     <t>Reprint one or all Pallet Label at FICSA</t>
@@ -6217,7 +6217,7 @@
     <t>B68</t>
   </si>
   <si>
-    <t>2.002.003.014</t>
+    <t>2.3.14</t>
   </si>
   <si>
     <t>Print Production Closure Report</t>
@@ -6226,7 +6226,7 @@
     <t>B69</t>
   </si>
   <si>
-    <t>2.002.003.015</t>
+    <t>2.3.15</t>
   </si>
   <si>
     <t>Inquiry On Hand Quantity for an Item</t>
@@ -6235,13 +6235,13 @@
     <t>B25</t>
   </si>
   <si>
-    <t>2.002.003.016</t>
+    <t>2.3.16</t>
   </si>
   <si>
     <t xml:space="preserve">Execute Product Transactions </t>
   </si>
   <si>
-    <t>2.002.004</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Rework and Reprocess a Batch</t>
@@ -6250,7 +6250,7 @@
     <t>B39</t>
   </si>
   <si>
-    <t>2.002.004.001</t>
+    <t>2.4.1</t>
   </si>
   <si>
     <t>Creation Unpack batch</t>
@@ -6259,7 +6259,7 @@
     <t>B40</t>
   </si>
   <si>
-    <t>2.002.004.002</t>
+    <t>2.4.2</t>
   </si>
   <si>
     <t>Execution of Unpacking a Batch</t>
@@ -6268,13 +6268,13 @@
     <t>B41</t>
   </si>
   <si>
-    <t>2.002.004.003</t>
+    <t>2.4.3</t>
   </si>
   <si>
     <t xml:space="preserve">Creating Batch for Repacking </t>
   </si>
   <si>
-    <t>2.002.005</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Costing</t>
@@ -6283,7 +6283,7 @@
     <t>B1</t>
   </si>
   <si>
-    <t>2.002.005.001</t>
+    <t>2.5.1</t>
   </si>
   <si>
     <t>Define Item Costs</t>
@@ -6292,7 +6292,7 @@
     <t>B2</t>
   </si>
   <si>
-    <t>2.002.005.002</t>
+    <t>2.5.2</t>
   </si>
   <si>
     <t>Define Resource Costs</t>
@@ -6301,7 +6301,7 @@
     <t>B3</t>
   </si>
   <si>
-    <t>2.002.005.003</t>
+    <t>2.5.3</t>
   </si>
   <si>
     <t>Define Fixed and Variable Overhead</t>
@@ -6310,7 +6310,7 @@
     <t>B4</t>
   </si>
   <si>
-    <t>2.002.005.004</t>
+    <t>2.5.4</t>
   </si>
   <si>
     <t>Run Standard Cost Rollup</t>
@@ -6319,7 +6319,7 @@
     <t>B5</t>
   </si>
   <si>
-    <t>2.002.005.005</t>
+    <t>2.5.5</t>
   </si>
   <si>
     <t>Run Cost Update in Draft</t>
@@ -6328,7 +6328,7 @@
     <t>B6</t>
   </si>
   <si>
-    <t>2.002.005.006</t>
+    <t>2.5.6</t>
   </si>
   <si>
     <t>Run OPM COGS</t>
@@ -6337,7 +6337,7 @@
     <t>B7</t>
   </si>
   <si>
-    <t>2.002.005.007</t>
+    <t>2.5.7</t>
   </si>
   <si>
     <t>Run OPM Accounting Pre-Processor</t>
@@ -6346,7 +6346,7 @@
     <t>B8</t>
   </si>
   <si>
-    <t>2.002.005.008</t>
+    <t>2.5.8</t>
   </si>
   <si>
     <t>Run Create Accounting in Draft Mode</t>
@@ -6355,7 +6355,7 @@
     <t>B9</t>
   </si>
   <si>
-    <t>2.002.005.009</t>
+    <t>2.5.9</t>
   </si>
   <si>
     <t>Run Create Accounting in Final Mode</t>
@@ -6364,7 +6364,7 @@
     <t>B37</t>
   </si>
   <si>
-    <t>2.002.005.010</t>
+    <t>2.5.10</t>
   </si>
   <si>
     <t>Copy Item Cost</t>
@@ -6373,13 +6373,13 @@
     <t>B38</t>
   </si>
   <si>
-    <t>2.002.005.011</t>
+    <t>2.5.11</t>
   </si>
   <si>
     <t>Copy Resource Cost</t>
   </si>
   <si>
-    <t>2.002.005.012</t>
+    <t>2.5.12</t>
   </si>
   <si>
     <t>Copy Overhead Cost</t>
@@ -6388,7 +6388,7 @@
     <t>B58</t>
   </si>
   <si>
-    <t>2.002.005.013</t>
+    <t>2.5.13</t>
   </si>
   <si>
     <t>Run FER GMF Detailed SLA Report Copy</t>
@@ -6397,13 +6397,13 @@
     <t>B70</t>
   </si>
   <si>
-    <t>2.002.005.014</t>
+    <t>2.5.14</t>
   </si>
   <si>
     <t xml:space="preserve">Close Costing Periods </t>
   </si>
   <si>
-    <t>2.002.006</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>Maintain Recipe</t>
@@ -6412,7 +6412,7 @@
     <t>B36</t>
   </si>
   <si>
-    <t>2.002.006.001</t>
+    <t>2.6.1</t>
   </si>
   <si>
     <t>Approve Recipe for Production</t>
@@ -6421,7 +6421,7 @@
     <t>B44</t>
   </si>
   <si>
-    <t>2.002.006.002</t>
+    <t>2.6.2</t>
   </si>
   <si>
     <t>Create Generic Resource</t>
@@ -6430,7 +6430,7 @@
     <t>B45</t>
   </si>
   <si>
-    <t>2.002.006.003</t>
+    <t>2.6.3</t>
   </si>
   <si>
     <t>Create a Routing &amp; Define Step Dependency</t>
@@ -6439,7 +6439,7 @@
     <t>B46</t>
   </si>
   <si>
-    <t>2.002.006.004</t>
+    <t>2.6.4</t>
   </si>
   <si>
     <t>Create a Formula</t>
@@ -6448,7 +6448,7 @@
     <t>B47</t>
   </si>
   <si>
-    <t>2.002.006.005</t>
+    <t>2.6.5</t>
   </si>
   <si>
     <t>Create Recipe with validity rules</t>
@@ -6457,7 +6457,7 @@
     <t>B49</t>
   </si>
   <si>
-    <t>2.002.006.006</t>
+    <t>2.6.6</t>
   </si>
   <si>
     <t>Create an Operation</t>
@@ -6466,13 +6466,13 @@
     <t>B48</t>
   </si>
   <si>
-    <t>2.002.006.007</t>
+    <t>2.6.7</t>
   </si>
   <si>
     <t xml:space="preserve">Create Item Substitution List </t>
   </si>
   <si>
-    <t>2.002.007</t>
+    <t>2.7</t>
   </si>
   <si>
     <t>Maintain Resource</t>
@@ -6481,7 +6481,7 @@
     <t>B55</t>
   </si>
   <si>
-    <t>2.002.007.001</t>
+    <t>2.7.1</t>
   </si>
   <si>
     <t>Create Resource Calendar</t>
@@ -6490,13 +6490,13 @@
     <t>B53</t>
   </si>
   <si>
-    <t>2.002.007.002</t>
+    <t>2.7.2</t>
   </si>
   <si>
     <t xml:space="preserve">Maintain Availability on Resource Calendar </t>
   </si>
   <si>
-    <t>2.002.008</t>
+    <t>2.8</t>
   </si>
   <si>
     <t>Create and Execute TPM Batches</t>
@@ -6505,7 +6505,7 @@
     <t>B57</t>
   </si>
   <si>
-    <t>2.002.008.001</t>
+    <t>2.8.1</t>
   </si>
   <si>
     <t xml:space="preserve">Create and Execute a TPM Batch </t>
@@ -6514,13 +6514,13 @@
     <t>C</t>
   </si>
   <si>
-    <t>2.003</t>
+    <t>3</t>
   </si>
   <si>
     <t>Enterprise Asset Management</t>
   </si>
   <si>
-    <t>2.003.001</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Instrument Definition and Calibration</t>
@@ -6529,13 +6529,13 @@
     <t>C7</t>
   </si>
   <si>
-    <t>2.003.001.001</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">Create and Enter Quality in Calibration Plan </t>
   </si>
   <si>
-    <t>2.003.002</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Corrective Maintenance</t>
@@ -6544,7 +6544,7 @@
     <t>C9</t>
   </si>
   <si>
-    <t>2.003.002.001</t>
+    <t>3.2.1</t>
   </si>
   <si>
     <t>Work Request creation and approval (full cycle)</t>
@@ -6553,7 +6553,7 @@
     <t>C33</t>
   </si>
   <si>
-    <t>2.003.002.002</t>
+    <t>3.2.2</t>
   </si>
   <si>
     <t>Work Request Creation</t>
@@ -6562,7 +6562,7 @@
     <t>C34</t>
   </si>
   <si>
-    <t>2.003.002.003</t>
+    <t>3.2.3</t>
   </si>
   <si>
     <t>Work Request Reassign</t>
@@ -6571,7 +6571,7 @@
     <t>C35</t>
   </si>
   <si>
-    <t>2.003.002.004</t>
+    <t>3.2.4</t>
   </si>
   <si>
     <t>Work Request Approval</t>
@@ -6580,7 +6580,7 @@
     <t>C36</t>
   </si>
   <si>
-    <t>2.003.002.005</t>
+    <t>3.2.5</t>
   </si>
   <si>
     <t>Work Request Request Information</t>
@@ -6589,7 +6589,7 @@
     <t>C37</t>
   </si>
   <si>
-    <t>2.003.002.006</t>
+    <t>3.2.6</t>
   </si>
   <si>
     <t>Work Request Rejection</t>
@@ -6598,7 +6598,7 @@
     <t>C10</t>
   </si>
   <si>
-    <t>2.003.002.007</t>
+    <t>3.2.7</t>
   </si>
   <si>
     <t>Work Request creation and reassign (full cycle)</t>
@@ -6607,7 +6607,7 @@
     <t>C11</t>
   </si>
   <si>
-    <t>2.003.002.008</t>
+    <t>3.2.8</t>
   </si>
   <si>
     <t>Work Request creation and reject (full cycle)</t>
@@ -6616,7 +6616,7 @@
     <t>C12</t>
   </si>
   <si>
-    <t>2.003.002.009</t>
+    <t>3.2.9</t>
   </si>
   <si>
     <t>Creating and managing Work Order Self Service</t>
@@ -6625,7 +6625,7 @@
     <t>C14</t>
   </si>
   <si>
-    <t>2.003.002.010</t>
+    <t>3.2.10</t>
   </si>
   <si>
     <t>Schedule preventive maintenance</t>
@@ -6634,13 +6634,13 @@
     <t>C15</t>
   </si>
   <si>
-    <t>2.003.002.011</t>
+    <t>3.2.11</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance Workbench </t>
   </si>
   <si>
-    <t>2.003.003</t>
+    <t>3.3</t>
   </si>
   <si>
     <t>Work Order Execution</t>
@@ -6649,13 +6649,13 @@
     <t>C18</t>
   </si>
   <si>
-    <t>2.003.003.001</t>
+    <t>3.3.1</t>
   </si>
   <si>
     <t xml:space="preserve">Work Order Completion with Self Service </t>
   </si>
   <si>
-    <t>2.003.004</t>
+    <t>3.4</t>
   </si>
   <si>
     <t>Purchasing and Inventory Valuation</t>
@@ -6664,7 +6664,7 @@
     <t>C30</t>
   </si>
   <si>
-    <t>2.003.004.001</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t xml:space="preserve">Run Min-Max Planning </t>
@@ -6673,13 +6673,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>2.004</t>
+    <t>4</t>
   </si>
   <si>
     <t>Purchase Order Management</t>
   </si>
   <si>
-    <t>2.004.001</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Process Purchase Order Requisitions</t>
@@ -6688,7 +6688,7 @@
     <t>D45</t>
   </si>
   <si>
-    <t>2.004.001.001</t>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>PO Create Purchase Requisition manually for non inventory good.</t>
@@ -6697,7 +6697,7 @@
     <t>D46</t>
   </si>
   <si>
-    <t>2.004.001.002</t>
+    <t>4.1.2</t>
   </si>
   <si>
     <t>PO Add Attachment to Purchase Requisition</t>
@@ -6706,7 +6706,7 @@
     <t>D49</t>
   </si>
   <si>
-    <t>2.004.001.003</t>
+    <t>4.1.3</t>
   </si>
   <si>
     <t>PO Update Currency from EUR to CHF</t>
@@ -6715,7 +6715,7 @@
     <t>D50</t>
   </si>
   <si>
-    <t>2.004.001.004</t>
+    <t>4.1.4</t>
   </si>
   <si>
     <t>PO Cancel a Purchase Requisition</t>
@@ -6724,7 +6724,7 @@
     <t>D12</t>
   </si>
   <si>
-    <t>2.004.001.005</t>
+    <t>4.1.5</t>
   </si>
   <si>
     <t>PO Vacation Rule</t>
@@ -6733,13 +6733,13 @@
     <t>D13</t>
   </si>
   <si>
-    <t>2.004.001.006</t>
+    <t>4.1.6</t>
   </si>
   <si>
     <t xml:space="preserve">PO Restart Email Notification </t>
   </si>
   <si>
-    <t>2.004.002</t>
+    <t>4.2</t>
   </si>
   <si>
     <t>Process Purchase Orders</t>
@@ -6748,7 +6748,7 @@
     <t>D14</t>
   </si>
   <si>
-    <t>2.004.002.001</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <t>PO manually autocreate Purchase Orders</t>
@@ -6757,7 +6757,7 @@
     <t>D52</t>
   </si>
   <si>
-    <t>2.004.002.002</t>
+    <t>4.2.2</t>
   </si>
   <si>
     <t>PO Autocreate Purchase Order automatically non Inventory good.</t>
@@ -6766,7 +6766,7 @@
     <t>D17</t>
   </si>
   <si>
-    <t>2.004.002.003</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>PO Create Standard Purchase Order Manually (after go live)</t>
@@ -6775,7 +6775,7 @@
     <t>D26</t>
   </si>
   <si>
-    <t>2.004.002.004</t>
+    <t>4.2.4</t>
   </si>
   <si>
     <t>PO Update Standard Purchase Order with Tax information</t>
@@ -6784,7 +6784,7 @@
     <t>D18</t>
   </si>
   <si>
-    <t>2.004.002.005</t>
+    <t>4.2.5</t>
   </si>
   <si>
     <t>PO Create Blanket Purchase Agreement manually</t>
@@ -6793,7 +6793,7 @@
     <t>D23</t>
   </si>
   <si>
-    <t>2.004.002.006</t>
+    <t>4.2.6</t>
   </si>
   <si>
     <t>PO Create Blanket Release</t>
@@ -6802,7 +6802,7 @@
     <t>D25</t>
   </si>
   <si>
-    <t>2.004.002.007</t>
+    <t>4.2.7</t>
   </si>
   <si>
     <t>PO modify an approved PO within approval limit</t>
@@ -6811,7 +6811,7 @@
     <t>D53</t>
   </si>
   <si>
-    <t>2.004.002.008</t>
+    <t>4.2.8</t>
   </si>
   <si>
     <t>PO Print PO</t>
@@ -6820,13 +6820,13 @@
     <t>D54</t>
   </si>
   <si>
-    <t>2.004.002.009</t>
+    <t>4.2.9</t>
   </si>
   <si>
     <t xml:space="preserve">PO Cancel PO </t>
   </si>
   <si>
-    <t>2.004.003</t>
+    <t>4.3</t>
   </si>
   <si>
     <t>Process Purchase Order Receipts</t>
@@ -6835,7 +6835,7 @@
     <t>D27</t>
   </si>
   <si>
-    <t>2.004.003.001</t>
+    <t>4.3.1</t>
   </si>
   <si>
     <t>PO Perform Standard Receipt for Inventory Items</t>
@@ -6844,7 +6844,7 @@
     <t>D55</t>
   </si>
   <si>
-    <t>2.004.003.002</t>
+    <t>4.3.2</t>
   </si>
   <si>
     <t>Receipt Pallet Form</t>
@@ -6853,7 +6853,7 @@
     <t>D56</t>
   </si>
   <si>
-    <t>2.004.003.003</t>
+    <t>4.3.3</t>
   </si>
   <si>
     <t>PO Perform Standard Receipt for Non Inventory Item</t>
@@ -6862,7 +6862,7 @@
     <t>D31</t>
   </si>
   <si>
-    <t>2.004.003.004</t>
+    <t>4.3.4</t>
   </si>
   <si>
     <t>PO Perform a return on Inventory Goods</t>
@@ -6871,13 +6871,13 @@
     <t>D33</t>
   </si>
   <si>
-    <t>2.004.003.005</t>
+    <t>4.3.5</t>
   </si>
   <si>
     <t xml:space="preserve">PO Perform a correction after PO Receipt </t>
   </si>
   <si>
-    <t>2.004.004</t>
+    <t>4.4</t>
   </si>
   <si>
     <t>Process Purchase Order Period Close and Reporting</t>
@@ -6886,7 +6886,7 @@
     <t>D34</t>
   </si>
   <si>
-    <t>2.004.004.001</t>
+    <t>4.4.1</t>
   </si>
   <si>
     <t>PO Create Accounting - Receiving</t>
@@ -6895,7 +6895,7 @@
     <t>D38</t>
   </si>
   <si>
-    <t>2.004.004.002</t>
+    <t>4.4.2</t>
   </si>
   <si>
     <t>PO Subledger Period Close Exceptions Report</t>
@@ -6904,7 +6904,7 @@
     <t>D39</t>
   </si>
   <si>
-    <t>2.004.004.003</t>
+    <t>4.4.3</t>
   </si>
   <si>
     <t>PO Journal Entries Report - Cost Mgmt</t>
@@ -6913,7 +6913,7 @@
     <t>D40</t>
   </si>
   <si>
-    <t>2.004.004.004</t>
+    <t>4.4.4</t>
   </si>
   <si>
     <t>PO Journal Entries Report</t>
@@ -6922,7 +6922,7 @@
     <t>D41</t>
   </si>
   <si>
-    <t>2.004.004.005</t>
+    <t>4.4.5</t>
   </si>
   <si>
     <t>PO AP and PO Accrual Reconciliation Report</t>
@@ -6931,7 +6931,7 @@
     <t>D44</t>
   </si>
   <si>
-    <t>2.004.004.006</t>
+    <t>4.4.6</t>
   </si>
   <si>
     <t>PO Open Close PO Period</t>
@@ -6940,19 +6940,19 @@
     <t>D35</t>
   </si>
   <si>
-    <t>2.004.004.007</t>
+    <t>4.4.7</t>
   </si>
   <si>
     <t xml:space="preserve">PO uninvoiced receipts report </t>
   </si>
   <si>
-    <t>2.004.005</t>
+    <t>4.5</t>
   </si>
   <si>
     <t>iProcurement</t>
   </si>
   <si>
-    <t>2.004.006</t>
+    <t>4.6</t>
   </si>
   <si>
     <t>Maintain Supplier Master Data</t>
@@ -6961,7 +6961,7 @@
     <t>D01</t>
   </si>
   <si>
-    <t>2.004.006.001</t>
+    <t>4.6.1</t>
   </si>
   <si>
     <t>iProcurement Create a PR</t>
@@ -6970,7 +6970,7 @@
     <t>D04</t>
   </si>
   <si>
-    <t>2.004.006.002</t>
+    <t>4.6.2</t>
   </si>
   <si>
     <t>iProcurement Approve a PR</t>
@@ -6979,7 +6979,7 @@
     <t>D02</t>
   </si>
   <si>
-    <t>2.004.006.003</t>
+    <t>4.6.3</t>
   </si>
   <si>
     <t>iProcurement Autocreate a PO</t>
@@ -6988,7 +6988,7 @@
     <t>D03</t>
   </si>
   <si>
-    <t>2.004.006.004</t>
+    <t>4.6.4</t>
   </si>
   <si>
     <t xml:space="preserve">iProcurement Perform a PO Receipt </t>
@@ -6997,13 +6997,13 @@
     <t>D05</t>
   </si>
   <si>
-    <t>2.004.006.005</t>
+    <t>4.6.5</t>
   </si>
   <si>
     <t>Employee Creation</t>
   </si>
   <si>
-    <t>2.004.006.006</t>
+    <t>4.6.6</t>
   </si>
   <si>
     <t xml:space="preserve">Approved Supplier List </t>
@@ -7012,13 +7012,13 @@
     <t>E</t>
   </si>
   <si>
-    <t>2.005</t>
+    <t>5</t>
   </si>
   <si>
     <t>Inventory Management</t>
   </si>
   <si>
-    <t>2.005.001</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Internal Requisition &amp; Internal Sales Order</t>
@@ -7027,7 +7027,7 @@
     <t>E39</t>
   </si>
   <si>
-    <t>2.005.001.001</t>
+    <t>5.1.1</t>
   </si>
   <si>
     <t>Transfer Goods from St Prex to TPM</t>
@@ -7036,7 +7036,7 @@
     <t>E40</t>
   </si>
   <si>
-    <t>2.005.001.002</t>
+    <t>5.1.2</t>
   </si>
   <si>
     <t>Transfer good from TPM to St Prex =&gt; correct Sc 649</t>
@@ -7045,7 +7045,7 @@
     <t>E41</t>
   </si>
   <si>
-    <t>2.005.001.003</t>
+    <t>5.1.3</t>
   </si>
   <si>
     <t>Trailer Ban from St Prex to the HUB and print transfer documents</t>
@@ -7054,7 +7054,7 @@
     <t>E42</t>
   </si>
   <si>
-    <t>2.005.001.004</t>
+    <t>5.1.4</t>
   </si>
   <si>
     <t>Return Good from the Hub to St Prex</t>
@@ -7063,7 +7063,7 @@
     <t>E43</t>
   </si>
   <si>
-    <t>2.005.001.005</t>
+    <t>5.1.5</t>
   </si>
   <si>
     <t>Print Transfer document</t>
@@ -7072,7 +7072,7 @@
     <t>E44</t>
   </si>
   <si>
-    <t>2.005.001.006</t>
+    <t>5.1.6</t>
   </si>
   <si>
     <t>Receipt PO (Multilines) and Print labels from Pallet Form</t>
@@ -7081,7 +7081,7 @@
     <t>E47</t>
   </si>
   <si>
-    <t>2.005.001.007</t>
+    <t>5.1.7</t>
   </si>
   <si>
     <t>Perform Receipt correction of Inventory goods</t>
@@ -7090,13 +7090,13 @@
     <t>E48</t>
   </si>
   <si>
-    <t>2.005.001.008</t>
+    <t>5.1.8</t>
   </si>
   <si>
     <t xml:space="preserve">Perform Return of Purchase Order </t>
   </si>
   <si>
-    <t>2.005.002</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>Maintain Item Master Data</t>
@@ -7105,7 +7105,7 @@
     <t>E1</t>
   </si>
   <si>
-    <t>2.005.002.001</t>
+    <t>5.2.1</t>
   </si>
   <si>
     <t>Create Item Master at Master level</t>
@@ -7114,7 +7114,7 @@
     <t>E2</t>
   </si>
   <si>
-    <t>2.005.002.002</t>
+    <t>5.2.2</t>
   </si>
   <si>
     <t>Maintain Item Master at Organization level</t>
@@ -7123,7 +7123,7 @@
     <t>E3</t>
   </si>
   <si>
-    <t>2.005.002.003</t>
+    <t>5.2.3</t>
   </si>
   <si>
     <t>Change the Item Status for an Inventory Item</t>
@@ -7132,7 +7132,7 @@
     <t>E4</t>
   </si>
   <si>
-    <t>2.005.002.004</t>
+    <t>5.2.4</t>
   </si>
   <si>
     <t>Item templates Creation and Maintenance</t>
@@ -7141,7 +7141,7 @@
     <t>E5</t>
   </si>
   <si>
-    <t>2.005.002.005</t>
+    <t>5.2.5</t>
   </si>
   <si>
     <t>Create Value Set Values</t>
@@ -7150,7 +7150,7 @@
     <t>E6</t>
   </si>
   <si>
-    <t>2.005.002.006</t>
+    <t>5.2.6</t>
   </si>
   <si>
     <t>Create UOM conversion</t>
@@ -7159,7 +7159,7 @@
     <t>E7</t>
   </si>
   <si>
-    <t>2.005.002.007</t>
+    <t>5.2.7</t>
   </si>
   <si>
     <t>Create Manufacturer Part Number Reference</t>
@@ -7168,7 +7168,7 @@
     <t>E15</t>
   </si>
   <si>
-    <t>2.005.002.008</t>
+    <t>5.2.8</t>
   </si>
   <si>
     <t>Un assignment of Items from Org.</t>
@@ -7177,7 +7177,7 @@
     <t>E16</t>
   </si>
   <si>
-    <t>2.005.002.009</t>
+    <t>5.2.9</t>
   </si>
   <si>
     <t>Create Item Category Codes</t>
@@ -7186,13 +7186,13 @@
     <t>E26</t>
   </si>
   <si>
-    <t>2.005.002.010</t>
+    <t>5.2.10</t>
   </si>
   <si>
     <t xml:space="preserve">Create Customer Item Cross Reference </t>
   </si>
   <si>
-    <t>2.005.003</t>
+    <t>5.3</t>
   </si>
   <si>
     <t>Maintain Inventory Set Up</t>
@@ -7201,7 +7201,7 @@
     <t>E8</t>
   </si>
   <si>
-    <t>2.005.003.001</t>
+    <t>5.3.1</t>
   </si>
   <si>
     <t>Create a Stock Locator</t>
@@ -7210,13 +7210,13 @@
     <t>E9</t>
   </si>
   <si>
-    <t>2.005.003.002</t>
+    <t>5.3.2</t>
   </si>
   <si>
     <t xml:space="preserve">Define Units of Measure and Conversions </t>
   </si>
   <si>
-    <t>2.005.004</t>
+    <t>5.4</t>
   </si>
   <si>
     <t>Inventory Transactions</t>
@@ -7225,7 +7225,7 @@
     <t>E11</t>
   </si>
   <si>
-    <t>2.005.004.001</t>
+    <t>5.4.1</t>
   </si>
   <si>
     <t>Create a Move Order</t>
@@ -7234,7 +7234,7 @@
     <t>E12</t>
   </si>
   <si>
-    <t>2.005.004.002</t>
+    <t>5.4.2</t>
   </si>
   <si>
     <t>Process a Move Order</t>
@@ -7243,7 +7243,7 @@
     <t>E13</t>
   </si>
   <si>
-    <t>2.005.004.003</t>
+    <t>5.4.3</t>
   </si>
   <si>
     <t>Process a Subinventory Transfer</t>
@@ -7252,7 +7252,7 @@
     <t>E17</t>
   </si>
   <si>
-    <t>2.005.004.004</t>
+    <t>5.4.4</t>
   </si>
   <si>
     <t>Process Ingredient Returns (Non-FICSA)</t>
@@ -7261,7 +7261,7 @@
     <t>E38</t>
   </si>
   <si>
-    <t>2.005.004.005</t>
+    <t>5.4.5</t>
   </si>
   <si>
     <t>Perform Availability Check on an Item</t>
@@ -7270,13 +7270,13 @@
     <t>E10</t>
   </si>
   <si>
-    <t>2.005.004.006</t>
+    <t>5.4.6</t>
   </si>
   <si>
     <t xml:space="preserve">Process a Miscellaneous Adjustment </t>
   </si>
   <si>
-    <t>2.005.005</t>
+    <t>5.5</t>
   </si>
   <si>
     <t>Physical Inventory Count</t>
@@ -7285,7 +7285,7 @@
     <t>E18</t>
   </si>
   <si>
-    <t>2.005.005.001</t>
+    <t>5.5.1</t>
   </si>
   <si>
     <t>Define a Physical Inventory</t>
@@ -7294,7 +7294,7 @@
     <t>E19</t>
   </si>
   <si>
-    <t>2.005.005.002</t>
+    <t>5.5.2</t>
   </si>
   <si>
     <t>Tag Generation</t>
@@ -7303,7 +7303,7 @@
     <t>E20</t>
   </si>
   <si>
-    <t>2.005.005.003</t>
+    <t>5.5.3</t>
   </si>
   <si>
     <t>Tag Counts</t>
@@ -7312,7 +7312,7 @@
     <t>E21</t>
   </si>
   <si>
-    <t>2.005.005.004</t>
+    <t>5.5.4</t>
   </si>
   <si>
     <t>Approve Adjustments</t>
@@ -7321,13 +7321,13 @@
     <t>E22</t>
   </si>
   <si>
-    <t>2.005.005.005</t>
+    <t>5.5.5</t>
   </si>
   <si>
     <t xml:space="preserve">Launch Adjustments </t>
   </si>
   <si>
-    <t>2.005.006</t>
+    <t>5.6</t>
   </si>
   <si>
     <t>Cycle Count</t>
@@ -7336,7 +7336,7 @@
     <t>E23</t>
   </si>
   <si>
-    <t>2.005.006.001</t>
+    <t>5.6.1</t>
   </si>
   <si>
     <t>Define Cycle Counts</t>
@@ -7345,7 +7345,7 @@
     <t>E24</t>
   </si>
   <si>
-    <t>2.005.006.002</t>
+    <t>5.6.2</t>
   </si>
   <si>
     <t>Cycle Count Entries</t>
@@ -7354,13 +7354,13 @@
     <t>E25</t>
   </si>
   <si>
-    <t>2.005.006.003</t>
+    <t>5.6.3</t>
   </si>
   <si>
     <t xml:space="preserve">Approve Counts </t>
   </si>
   <si>
-    <t>2.005.007</t>
+    <t>5.7</t>
   </si>
   <si>
     <t>Perform Period Open Close</t>
@@ -7369,7 +7369,7 @@
     <t>E30</t>
   </si>
   <si>
-    <t>2.005.007.001</t>
+    <t>5.7.1</t>
   </si>
   <si>
     <t>Open Inventory Period</t>
@@ -7378,13 +7378,13 @@
     <t>E29</t>
   </si>
   <si>
-    <t>2.005.007.002</t>
+    <t>5.7.2</t>
   </si>
   <si>
     <t xml:space="preserve">Close Inventory Period </t>
   </si>
   <si>
-    <t>2.005.008</t>
+    <t>5.8</t>
   </si>
   <si>
     <t>Quality Transactions</t>
@@ -7393,7 +7393,7 @@
     <t>E34</t>
   </si>
   <si>
-    <t>2.005.008.001</t>
+    <t>5.8.1</t>
   </si>
   <si>
     <t>Lot Inter-Class UOM Conversion</t>
@@ -7402,7 +7402,7 @@
     <t>E32</t>
   </si>
   <si>
-    <t>2.005.008.002</t>
+    <t>5.8.2</t>
   </si>
   <si>
     <t>Perform a Miscellaneous Issue</t>
@@ -7411,7 +7411,7 @@
     <t>E31</t>
   </si>
   <si>
-    <t>2.005.008.003</t>
+    <t>5.8.3</t>
   </si>
   <si>
     <t>Manual Material Status Change</t>
@@ -7420,7 +7420,7 @@
     <t>E50</t>
   </si>
   <si>
-    <t>2.005.008.004</t>
+    <t>5.8.4</t>
   </si>
   <si>
     <t>Manually Update Lot Attributes</t>
@@ -7429,7 +7429,7 @@
     <t>E51</t>
   </si>
   <si>
-    <t>2.005.008.005</t>
+    <t>5.8.5</t>
   </si>
   <si>
     <t>Mass Status Change of Expired Lots</t>
@@ -7438,7 +7438,7 @@
     <t>E52</t>
   </si>
   <si>
-    <t>2.005.008.006</t>
+    <t>5.8.6</t>
   </si>
   <si>
     <t>Run Lot Genealogy Report</t>
@@ -7447,13 +7447,13 @@
     <t>F</t>
   </si>
   <si>
-    <t>2.006</t>
+    <t>6</t>
   </si>
   <si>
     <t>Order Management</t>
   </si>
   <si>
-    <t>2.006.001</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Enter Orders</t>
@@ -7462,7 +7462,7 @@
     <t>F1</t>
   </si>
   <si>
-    <t>2.006.001.001</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Create an Urgent Sales Order</t>
@@ -7471,7 +7471,7 @@
     <t>F2</t>
   </si>
   <si>
-    <t>2.006.001.002</t>
+    <t>6.1.2</t>
   </si>
   <si>
     <t>Create Intercompany Sales Order</t>
@@ -7480,7 +7480,7 @@
     <t>F3</t>
   </si>
   <si>
-    <t>2.006.001.003</t>
+    <t>6.1.3</t>
   </si>
   <si>
     <t>Create a Sample Sales Order</t>
@@ -7489,13 +7489,13 @@
     <t>F4</t>
   </si>
   <si>
-    <t>2.006.001.004</t>
+    <t>6.1.4</t>
   </si>
   <si>
     <t xml:space="preserve">Create a 3rd Party Sales Order </t>
   </si>
   <si>
-    <t>2.006.002</t>
+    <t>6.2</t>
   </si>
   <si>
     <t>Maintain Pricing and Discounts</t>
@@ -7504,7 +7504,7 @@
     <t>F5</t>
   </si>
   <si>
-    <t>2.006.002.001</t>
+    <t>6.2.1</t>
   </si>
   <si>
     <t>Create and Maintain Price Lists</t>
@@ -7513,7 +7513,7 @@
     <t>F6</t>
   </si>
   <si>
-    <t>2.006.002.002</t>
+    <t>6.2.2</t>
   </si>
   <si>
     <t>Create a Modifier</t>
@@ -7522,13 +7522,13 @@
     <t>F7</t>
   </si>
   <si>
-    <t>2.006.002.003</t>
+    <t>6.2.3</t>
   </si>
   <si>
     <t xml:space="preserve">Perform Sales Order Pricing </t>
   </si>
   <si>
-    <t>2.006.003</t>
+    <t>6.3</t>
   </si>
   <si>
     <t>Perform Credit Check and Release</t>
@@ -7537,7 +7537,7 @@
     <t>F8</t>
   </si>
   <si>
-    <t>2.006.003.001</t>
+    <t>6.3.1</t>
   </si>
   <si>
     <t>Perform Credit Check at Order Booking</t>
@@ -7546,7 +7546,7 @@
     <t>F9</t>
   </si>
   <si>
-    <t>2.006.003.002</t>
+    <t>6.3.2</t>
   </si>
   <si>
     <t>Perform Credit Check at Picking</t>
@@ -7555,7 +7555,7 @@
     <t>F10</t>
   </si>
   <si>
-    <t>2.006.003.003</t>
+    <t>6.3.3</t>
   </si>
   <si>
     <t>Manage Credit Hold and Release</t>
@@ -7564,7 +7564,7 @@
     <t>F11</t>
   </si>
   <si>
-    <t>2.006.003.004</t>
+    <t>6.3.4</t>
   </si>
   <si>
     <t>Perform a Manual Order Hold</t>
@@ -7573,13 +7573,13 @@
     <t>F12</t>
   </si>
   <si>
-    <t>2.006.003.005</t>
+    <t>6.3.5</t>
   </si>
   <si>
     <t xml:space="preserve">Release a Manual Order Hold </t>
   </si>
   <si>
-    <t>2.006.004</t>
+    <t>6.4</t>
   </si>
   <si>
     <t>Process Order Changes</t>
@@ -7588,7 +7588,7 @@
     <t>F13</t>
   </si>
   <si>
-    <t>2.006.004.001</t>
+    <t>6.4.1</t>
   </si>
   <si>
     <t>Perform Sales Order Change for an Entered Order</t>
@@ -7597,13 +7597,13 @@
     <t>F14</t>
   </si>
   <si>
-    <t>2.006.004.002</t>
+    <t>6.4.2</t>
   </si>
   <si>
     <t xml:space="preserve">Perform a Sales Order Change for a Booked Order </t>
   </si>
   <si>
-    <t>2.006.005</t>
+    <t>6.5</t>
   </si>
   <si>
     <t>Perfom Availability Check and Reservation</t>
@@ -7612,7 +7612,7 @@
     <t>F15</t>
   </si>
   <si>
-    <t>2.006.005.001</t>
+    <t>6.5.1</t>
   </si>
   <si>
     <t>Check Availability at time of Booking an Order for an ATP item</t>
@@ -7621,19 +7621,19 @@
     <t>F16</t>
   </si>
   <si>
-    <t>2.006.005.002</t>
+    <t>6.5.2</t>
   </si>
   <si>
     <t>Perform Allocation of goods and Reservations for a Sales Order</t>
   </si>
   <si>
-    <t>2.006.005.003</t>
+    <t>6.5.3</t>
   </si>
   <si>
     <t xml:space="preserve">Perform Availability Check on an Item </t>
   </si>
   <si>
-    <t>2.006.006</t>
+    <t>6.6</t>
   </si>
   <si>
     <t>Pick Release</t>
@@ -7642,7 +7642,7 @@
     <t>F17</t>
   </si>
   <si>
-    <t>2.006.006.001</t>
+    <t>6.6.1</t>
   </si>
   <si>
     <t>Release Sales Orders for Picking for FICSA</t>
@@ -7651,7 +7651,7 @@
     <t>F18</t>
   </si>
   <si>
-    <t>2.006.006.002</t>
+    <t>6.6.2</t>
   </si>
   <si>
     <t>Release Sales Orders for Picking for Non-FICSA</t>
@@ -7660,13 +7660,13 @@
     <t>F19</t>
   </si>
   <si>
-    <t>2.006.006.003</t>
+    <t>6.6.3</t>
   </si>
   <si>
     <t xml:space="preserve">Pick Confirm a Sales Order </t>
   </si>
   <si>
-    <t>2.006.007</t>
+    <t>6.7</t>
   </si>
   <si>
     <t>Ship Confirm</t>
@@ -7675,13 +7675,13 @@
     <t>F20</t>
   </si>
   <si>
-    <t>2.006.007.001</t>
+    <t>6.7.1</t>
   </si>
   <si>
     <t xml:space="preserve">Ship Confirm a Sales Order </t>
   </si>
   <si>
-    <t>2.006.008</t>
+    <t>6.8</t>
   </si>
   <si>
     <t>Create and Process Return Material Authorisation (RMAs)</t>
@@ -7690,7 +7690,7 @@
     <t>F21</t>
   </si>
   <si>
-    <t>2.006.008.001</t>
+    <t>6.8.1</t>
   </si>
   <si>
     <t>Create an RMA Order with Receipt and Credit Note</t>
@@ -7699,7 +7699,7 @@
     <t>F22</t>
   </si>
   <si>
-    <t>2.006.008.002</t>
+    <t>6.8.2</t>
   </si>
   <si>
     <t>Create an RMA Order with Credit Note and No Receipt</t>
@@ -7708,7 +7708,7 @@
     <t>F23</t>
   </si>
   <si>
-    <t>2.006.008.003</t>
+    <t>6.8.3</t>
   </si>
   <si>
     <t>Create an RMA Order with Receipt and No Credit Note</t>
@@ -7717,13 +7717,13 @@
     <t>F24</t>
   </si>
   <si>
-    <t>2.006.008.004</t>
+    <t>6.8.4</t>
   </si>
   <si>
     <t xml:space="preserve">Perform the Receipt of an RMA Order </t>
   </si>
   <si>
-    <t>2.006.009</t>
+    <t>6.9</t>
   </si>
   <si>
     <t>Create and Process Drop Shipments</t>
@@ -7732,7 +7732,7 @@
     <t>F25</t>
   </si>
   <si>
-    <t>2.006.009.001</t>
+    <t>6.9.1</t>
   </si>
   <si>
     <t>Create a Drop Shipment</t>
@@ -7741,7 +7741,7 @@
     <t>F26</t>
   </si>
   <si>
-    <t>2.006.009.002</t>
+    <t>6.9.2</t>
   </si>
   <si>
     <t>Process a Drop Shipment Purchase Order</t>
@@ -7750,7 +7750,7 @@
     <t>F27</t>
   </si>
   <si>
-    <t>2.006.009.003</t>
+    <t>6.9.3</t>
   </si>
   <si>
     <t>Close a Drop Ship Order Upon Customer Receipt of a Drop Shipment</t>
@@ -7759,13 +7759,13 @@
     <t>F34</t>
   </si>
   <si>
-    <t>2.006.009.004</t>
+    <t>6.9.4</t>
   </si>
   <si>
     <t xml:space="preserve">Receive Drop Ship PO </t>
   </si>
   <si>
-    <t>2.006.010</t>
+    <t>6.10</t>
   </si>
   <si>
     <t>Process Internal Sales Orders</t>
@@ -7774,7 +7774,7 @@
     <t>F31</t>
   </si>
   <si>
-    <t>2.006.010.001</t>
+    <t>6.10.1</t>
   </si>
   <si>
     <t>Create a Requisition for an Internal Sales Order</t>
@@ -7783,7 +7783,7 @@
     <t>F32</t>
   </si>
   <si>
-    <t>2.006.010.002</t>
+    <t>6.10.2</t>
   </si>
   <si>
     <t>Process an Internal Sales Order</t>
@@ -7792,7 +7792,7 @@
     <t>F33</t>
   </si>
   <si>
-    <t>2.006.010.003</t>
+    <t>6.10.3</t>
   </si>
   <si>
     <t xml:space="preserve">Receipt of an Internal Requisition </t>
@@ -7801,13 +7801,13 @@
     <t>G</t>
   </si>
   <si>
-    <t>2.007</t>
+    <t>7</t>
   </si>
   <si>
     <t>Accounts Receivable</t>
   </si>
   <si>
-    <t>2.007.001</t>
+    <t>7.1</t>
   </si>
   <si>
     <t>Maintain Accounts Receivable Masters</t>
@@ -7816,13 +7816,13 @@
     <t>G1</t>
   </si>
   <si>
-    <t>2.007.001.001</t>
+    <t>7.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">Create Customer </t>
   </si>
   <si>
-    <t>2.007.002</t>
+    <t>7.2</t>
   </si>
   <si>
     <t>Process Accounts Receivable Transactions</t>
@@ -7831,7 +7831,7 @@
     <t>G3</t>
   </si>
   <si>
-    <t>2.007.002.001</t>
+    <t>7.2.1</t>
   </si>
   <si>
     <t>AR Launch autoinvoice program</t>
@@ -7840,7 +7840,7 @@
     <t>G4</t>
   </si>
   <si>
-    <t>2.007.002.002</t>
+    <t>7.2.2</t>
   </si>
   <si>
     <t>AR Process Manual Invoice for functional or foreign currency</t>
@@ -7849,7 +7849,7 @@
     <t>G6</t>
   </si>
   <si>
-    <t>2.007.002.003</t>
+    <t>7.2.3</t>
   </si>
   <si>
     <t>AR Enter manual invoices with memolines</t>
@@ -7858,7 +7858,7 @@
     <t>G8</t>
   </si>
   <si>
-    <t>2.007.002.004</t>
+    <t>7.2.4</t>
   </si>
   <si>
     <t>AR Process Manual Credit Memo</t>
@@ -7867,7 +7867,7 @@
     <t>G9</t>
   </si>
   <si>
-    <t>2.007.002.005</t>
+    <t>7.2.5</t>
   </si>
   <si>
     <t>AR Perform Credit Note Refund</t>
@@ -7876,7 +7876,7 @@
     <t>G11</t>
   </si>
   <si>
-    <t>2.007.002.006</t>
+    <t>7.2.6</t>
   </si>
   <si>
     <t>AR Print single invoice using invoice print program</t>
@@ -7885,7 +7885,7 @@
     <t>G12</t>
   </si>
   <si>
-    <t>2.007.002.007</t>
+    <t>7.2.7</t>
   </si>
   <si>
     <t>AR Print Invoices</t>
@@ -7894,13 +7894,13 @@
     <t>G13</t>
   </si>
   <si>
-    <t>2.007.002.008</t>
+    <t>7.2.8</t>
   </si>
   <si>
     <t xml:space="preserve">AR Process Manual Invoices for Services or Recharge </t>
   </si>
   <si>
-    <t>2.007.003</t>
+    <t>7.3</t>
   </si>
   <si>
     <t>Process Accounts Receivable Receipts</t>
@@ -7909,7 +7909,7 @@
     <t>G14</t>
   </si>
   <si>
-    <t>2.007.003.001</t>
+    <t>7.3.1</t>
   </si>
   <si>
     <t>AR Enter Receipts in functional currency (unapplied)</t>
@@ -7918,7 +7918,7 @@
     <t>G15</t>
   </si>
   <si>
-    <t>2.007.003.002</t>
+    <t>7.3.2</t>
   </si>
   <si>
     <t>AR Enter Receipts in foreign currency</t>
@@ -7927,7 +7927,7 @@
     <t>G17</t>
   </si>
   <si>
-    <t>2.007.003.003</t>
+    <t>7.3.3</t>
   </si>
   <si>
     <t>AR Apply Receipt on Invoices</t>
@@ -7936,7 +7936,7 @@
     <t>G18</t>
   </si>
   <si>
-    <t>2.007.003.004</t>
+    <t>7.3.4</t>
   </si>
   <si>
     <t>AR Apply Receipt on Account</t>
@@ -7945,7 +7945,7 @@
     <t>G48</t>
   </si>
   <si>
-    <t>2.007.003.005</t>
+    <t>7.3.5</t>
   </si>
   <si>
     <t>AR Apply Receipt from on Account to invoice</t>
@@ -7954,13 +7954,13 @@
     <t>G19</t>
   </si>
   <si>
-    <t>2.007.003.006</t>
+    <t>7.3.6</t>
   </si>
   <si>
     <t xml:space="preserve">AR Reverse Receipts </t>
   </si>
   <si>
-    <t>2.007.004</t>
+    <t>7.4</t>
   </si>
   <si>
     <t>Perform Accounts Receivable Month End Close and Reporting</t>
@@ -7969,7 +7969,7 @@
     <t>G21</t>
   </si>
   <si>
-    <t>2.007.004.001</t>
+    <t>7.4.1</t>
   </si>
   <si>
     <t>AR Open Period</t>
@@ -7978,7 +7978,7 @@
     <t>G22</t>
   </si>
   <si>
-    <t>2.007.004.002</t>
+    <t>7.4.2</t>
   </si>
   <si>
     <t>AR Close Period</t>
@@ -7987,7 +7987,7 @@
     <t>G23</t>
   </si>
   <si>
-    <t>2.007.004.003</t>
+    <t>7.4.3</t>
   </si>
   <si>
     <t>AR Unposted Items Report</t>
@@ -7996,7 +7996,7 @@
     <t>G24</t>
   </si>
   <si>
-    <t>2.007.004.004</t>
+    <t>7.4.4</t>
   </si>
   <si>
     <t>AR Incomplete Invoices Report</t>
@@ -8005,7 +8005,7 @@
     <t>G25</t>
   </si>
   <si>
-    <t>2.007.004.005</t>
+    <t>7.4.5</t>
   </si>
   <si>
     <t>AR Invoice Exceptions Report</t>
@@ -8014,7 +8014,7 @@
     <t>G26</t>
   </si>
   <si>
-    <t>2.007.004.006</t>
+    <t>7.4.6</t>
   </si>
   <si>
     <t>AR Adjustment Approval Report</t>
@@ -8023,7 +8023,7 @@
     <t>G27</t>
   </si>
   <si>
-    <t>2.007.004.007</t>
+    <t>7.4.7</t>
   </si>
   <si>
     <t>AR SLA Create Accounting</t>
@@ -8032,7 +8032,7 @@
     <t>G49</t>
   </si>
   <si>
-    <t>2.007.004.008</t>
+    <t>7.4.8</t>
   </si>
   <si>
     <t>AR SLA Create Accounting export to XL</t>
@@ -8041,7 +8041,7 @@
     <t>G28</t>
   </si>
   <si>
-    <t>2.007.004.009</t>
+    <t>7.4.9</t>
   </si>
   <si>
     <t>AR SLA Accounting Events</t>
@@ -8050,7 +8050,7 @@
     <t>G30</t>
   </si>
   <si>
-    <t>2.007.004.010</t>
+    <t>7.4.10</t>
   </si>
   <si>
     <t>AR SLA Journal Entry Lines</t>
@@ -8059,7 +8059,7 @@
     <t>G31</t>
   </si>
   <si>
-    <t>2.007.004.011</t>
+    <t>7.4.11</t>
   </si>
   <si>
     <t>AR SLA AR to GL Reconciliation Report</t>
@@ -8068,7 +8068,7 @@
     <t>G33</t>
   </si>
   <si>
-    <t>2.007.004.012</t>
+    <t>7.4.12</t>
   </si>
   <si>
     <t>AR Run Account Status Report</t>
@@ -8077,7 +8077,7 @@
     <t>G34</t>
   </si>
   <si>
-    <t>2.007.004.013</t>
+    <t>7.4.13</t>
   </si>
   <si>
     <t>AR Run Transaction Register</t>
@@ -8086,7 +8086,7 @@
     <t>G35</t>
   </si>
   <si>
-    <t>2.007.004.014</t>
+    <t>7.4.14</t>
   </si>
   <si>
     <t>AR Run Adjustment Report</t>
@@ -8095,7 +8095,7 @@
     <t>G37</t>
   </si>
   <si>
-    <t>2.007.004.015</t>
+    <t>7.4.15</t>
   </si>
   <si>
     <t>AR Run Applied Receipt Register</t>
@@ -8104,7 +8104,7 @@
     <t>G38</t>
   </si>
   <si>
-    <t>2.007.004.016</t>
+    <t>7.4.16</t>
   </si>
   <si>
     <t>AR Run Sales Journal report by customer and GL Account</t>
@@ -8113,7 +8113,7 @@
     <t>G39</t>
   </si>
   <si>
-    <t>2.007.004.017</t>
+    <t>7.4.17</t>
   </si>
   <si>
     <t>AR Run Receipt Register</t>
@@ -8122,7 +8122,7 @@
     <t>G40</t>
   </si>
   <si>
-    <t>2.007.004.018</t>
+    <t>7.4.18</t>
   </si>
   <si>
     <t>AR Run Miscellaneous Receipt Register</t>
@@ -8131,13 +8131,13 @@
     <t>G29</t>
   </si>
   <si>
-    <t>2.007.004.019</t>
+    <t>7.4.19</t>
   </si>
   <si>
     <t xml:space="preserve">AR SLA Journal Entries Report </t>
   </si>
   <si>
-    <t>2.007.005</t>
+    <t>7.5</t>
   </si>
   <si>
     <t>iReceivables</t>
@@ -8146,7 +8146,7 @@
     <t>G45</t>
   </si>
   <si>
-    <t>2.007.005.001</t>
+    <t>7.5.1</t>
   </si>
   <si>
     <t>iRec Create a Credit Memo Request</t>
@@ -8155,7 +8155,7 @@
     <t>G42</t>
   </si>
   <si>
-    <t>2.007.005.002</t>
+    <t>7.5.2</t>
   </si>
   <si>
     <t>iRec Customer Service Account Inquiry</t>
@@ -8164,7 +8164,7 @@
     <t>G43</t>
   </si>
   <si>
-    <t>2.007.005.003</t>
+    <t>7.5.3</t>
   </si>
   <si>
     <t>iRec Download Statement</t>
@@ -8173,7 +8173,7 @@
     <t>G44</t>
   </si>
   <si>
-    <t>2.007.005.004</t>
+    <t>7.5.4</t>
   </si>
   <si>
     <t>iRec Print or Download Transactions</t>
@@ -8182,7 +8182,7 @@
     <t>G46</t>
   </si>
   <si>
-    <t>2.007.005.005</t>
+    <t>7.5.5</t>
   </si>
   <si>
     <t xml:space="preserve">iRec Approve a Credit Memo Request </t>
@@ -8191,13 +8191,13 @@
     <t>H</t>
   </si>
   <si>
-    <t>2.008</t>
+    <t>8</t>
   </si>
   <si>
     <t>Accounts Payable</t>
   </si>
   <si>
-    <t>2.008.001</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Process Accounts Payable Intercompany Transactions</t>
@@ -8206,7 +8206,7 @@
     <t>H23</t>
   </si>
   <si>
-    <t>2.008.001.001</t>
+    <t>8.1.1</t>
   </si>
   <si>
     <t>OM Create Intercompany Sales Order</t>
@@ -8215,7 +8215,7 @@
     <t>H24</t>
   </si>
   <si>
-    <t>2.008.001.002</t>
+    <t>8.1.2</t>
   </si>
   <si>
     <t>OM Release Intercompany Sales Order</t>
@@ -8224,7 +8224,7 @@
     <t>H25</t>
   </si>
   <si>
-    <t>2.008.001.003</t>
+    <t>8.1.3</t>
   </si>
   <si>
     <t>INV and AR Create Intercompany AR Invoice</t>
@@ -8233,7 +8233,7 @@
     <t>H26</t>
   </si>
   <si>
-    <t>2.008.001.004</t>
+    <t>8.1.4</t>
   </si>
   <si>
     <t>INV Create Intercompany AP Invoice</t>
@@ -8242,7 +8242,7 @@
     <t>H27</t>
   </si>
   <si>
-    <t>2.008.001.005</t>
+    <t>8.1.5</t>
   </si>
   <si>
     <t>AP Create (import) Intercompany Invoice</t>
@@ -8251,13 +8251,13 @@
     <t>H28</t>
   </si>
   <si>
-    <t>2.008.001.006</t>
+    <t>8.1.6</t>
   </si>
   <si>
     <t xml:space="preserve">AR Create (import) Intercompany Invoice </t>
   </si>
   <si>
-    <t>2.008.002</t>
+    <t>8.2</t>
   </si>
   <si>
     <t>Process Accounts Payable Intercompany with Requisition Transactions</t>
@@ -8266,7 +8266,7 @@
     <t>H29</t>
   </si>
   <si>
-    <t>2.008.002.001</t>
+    <t>8.2.1</t>
   </si>
   <si>
     <t>PO Create Internal Requisition and Create Internal Sales Order</t>
@@ -8275,7 +8275,7 @@
     <t>H30</t>
   </si>
   <si>
-    <t>2.008.002.002</t>
+    <t>8.2.2</t>
   </si>
   <si>
     <t>OM Import Internal Requisition</t>
@@ -8284,7 +8284,7 @@
     <t>H31</t>
   </si>
   <si>
-    <t>2.008.002.003</t>
+    <t>8.2.3</t>
   </si>
   <si>
     <t>OM Pick Release</t>
@@ -8293,13 +8293,13 @@
     <t>H32</t>
   </si>
   <si>
-    <t>2.008.002.004</t>
+    <t>8.2.4</t>
   </si>
   <si>
     <t xml:space="preserve">PO Receiving internal Requisition </t>
   </si>
   <si>
-    <t>2.008.003</t>
+    <t>8.3</t>
   </si>
   <si>
     <t>Maintain Accounts Payable Masters</t>
@@ -8308,7 +8308,7 @@
     <t>H1</t>
   </si>
   <si>
-    <t>2.008.003.001</t>
+    <t>8.3.1</t>
   </si>
   <si>
     <t>Create Suppliers</t>
@@ -8317,7 +8317,7 @@
     <t>H2</t>
   </si>
   <si>
-    <t>2.008.003.002</t>
+    <t>8.3.2</t>
   </si>
   <si>
     <t>Create internal bank</t>
@@ -8326,13 +8326,13 @@
     <t>H3</t>
   </si>
   <si>
-    <t>2.008.003.003</t>
+    <t>8.3.3</t>
   </si>
   <si>
     <t xml:space="preserve">BTG Supplier Details </t>
   </si>
   <si>
-    <t>2.008.004</t>
+    <t>8.4</t>
   </si>
   <si>
     <t>Process Accounts Payable Transactions</t>
@@ -8341,7 +8341,7 @@
     <t>H7</t>
   </si>
   <si>
-    <t>2.008.004.001</t>
+    <t>8.4.1</t>
   </si>
   <si>
     <t>AP Enter manual invoice in foreign currency</t>
@@ -8350,7 +8350,7 @@
     <t>H8</t>
   </si>
   <si>
-    <t>2.008.004.002</t>
+    <t>8.4.2</t>
   </si>
   <si>
     <t>AP Enter manual invoice using ESR number</t>
@@ -8359,7 +8359,7 @@
     <t>H9</t>
   </si>
   <si>
-    <t>2.008.004.003</t>
+    <t>8.4.3</t>
   </si>
   <si>
     <t>AP Modify tax line on manual invoice</t>
@@ -8368,7 +8368,7 @@
     <t>H10</t>
   </si>
   <si>
-    <t>2.008.004.004</t>
+    <t>8.4.4</t>
   </si>
   <si>
     <t>AP Enter a Credit Memo</t>
@@ -8377,7 +8377,7 @@
     <t>H11</t>
   </si>
   <si>
-    <t>2.008.004.005</t>
+    <t>8.4.5</t>
   </si>
   <si>
     <t>AP Enter Refund Payment</t>
@@ -8386,7 +8386,7 @@
     <t>H13</t>
   </si>
   <si>
-    <t>2.008.004.006</t>
+    <t>8.4.6</t>
   </si>
   <si>
     <t>AP Cancel an Invoice</t>
@@ -8395,7 +8395,7 @@
     <t>H17</t>
   </si>
   <si>
-    <t>2.008.004.007</t>
+    <t>8.4.7</t>
   </si>
   <si>
     <t>AP complete credit note generated by RTV</t>
@@ -8404,7 +8404,7 @@
     <t>H14</t>
   </si>
   <si>
-    <t>2.008.004.008</t>
+    <t>8.4.8</t>
   </si>
   <si>
     <t>AP match invoices to PO receipts</t>
@@ -8413,7 +8413,7 @@
     <t>H19</t>
   </si>
   <si>
-    <t>2.008.004.009</t>
+    <t>8.4.9</t>
   </si>
   <si>
     <t>AP Approve Expense Reports</t>
@@ -8422,7 +8422,7 @@
     <t>H20</t>
   </si>
   <si>
-    <t>2.008.004.010</t>
+    <t>8.4.10</t>
   </si>
   <si>
     <t>AP Reject Expense Reports</t>
@@ -8431,7 +8431,7 @@
     <t>H21</t>
   </si>
   <si>
-    <t>2.008.004.011</t>
+    <t>8.4.11</t>
   </si>
   <si>
     <t>AP Audit Expense Reports by Payables</t>
@@ -8440,7 +8440,7 @@
     <t>H22</t>
   </si>
   <si>
-    <t>2.008.004.012</t>
+    <t>8.4.12</t>
   </si>
   <si>
     <t>AP Import Expense Report into AP</t>
@@ -8449,7 +8449,7 @@
     <t>H6</t>
   </si>
   <si>
-    <t>2.008.004.013</t>
+    <t>8.4.13</t>
   </si>
   <si>
     <t>AP Enter a manual invoice</t>
@@ -8458,13 +8458,13 @@
     <t>H18</t>
   </si>
   <si>
-    <t>2.008.004.014</t>
+    <t>8.4.14</t>
   </si>
   <si>
     <t xml:space="preserve">AP Enter Expense Report </t>
   </si>
   <si>
-    <t>2.008.005</t>
+    <t>8.5</t>
   </si>
   <si>
     <t>Process Accounts Payable Payments</t>
@@ -8473,7 +8473,7 @@
     <t>H36</t>
   </si>
   <si>
-    <t>2.008.005.001</t>
+    <t>8.5.1</t>
   </si>
   <si>
     <t>AP Pay a prepayment invoice</t>
@@ -8482,7 +8482,7 @@
     <t>H38</t>
   </si>
   <si>
-    <t>2.008.005.002</t>
+    <t>8.5.2</t>
   </si>
   <si>
     <t>AP Create Payment Process Request Template</t>
@@ -8491,7 +8491,7 @@
     <t>H39</t>
   </si>
   <si>
-    <t>2.008.005.003</t>
+    <t>8.5.3</t>
   </si>
   <si>
     <t>AP Create EFT Payment batch</t>
@@ -8500,7 +8500,7 @@
     <t>H40</t>
   </si>
   <si>
-    <t>2.008.005.004</t>
+    <t>8.5.4</t>
   </si>
   <si>
     <t>AP Modify a payment proposal</t>
@@ -8509,7 +8509,7 @@
     <t>H42</t>
   </si>
   <si>
-    <t>2.008.005.005</t>
+    <t>8.5.5</t>
   </si>
   <si>
     <t>AP Create a manual payment</t>
@@ -8518,7 +8518,7 @@
     <t>H44</t>
   </si>
   <si>
-    <t>2.008.005.006</t>
+    <t>8.5.6</t>
   </si>
   <si>
     <t>AP Void a manual payment</t>
@@ -8527,7 +8527,7 @@
     <t>H45</t>
   </si>
   <si>
-    <t>2.008.005.007</t>
+    <t>8.5.7</t>
   </si>
   <si>
     <t>AP Unapply a prepayment to an invoice</t>
@@ -8536,7 +8536,7 @@
     <t>H46</t>
   </si>
   <si>
-    <t>2.008.005.008</t>
+    <t>8.5.8</t>
   </si>
   <si>
     <t>AP Enter a Prepayment invoice</t>
@@ -8545,13 +8545,13 @@
     <t>H37</t>
   </si>
   <si>
-    <t>2.008.005.009</t>
+    <t>8.5.9</t>
   </si>
   <si>
     <t xml:space="preserve">AP Apply a prepayment to an invoice </t>
   </si>
   <si>
-    <t>2.008.006</t>
+    <t>8.6</t>
   </si>
   <si>
     <t>Accounts Payable and Accounts Receivable Netting</t>
@@ -8560,7 +8560,7 @@
     <t>H47</t>
   </si>
   <si>
-    <t>2.008.006.001</t>
+    <t>8.6.1</t>
   </si>
   <si>
     <t>Setup Netting bank account</t>
@@ -8569,7 +8569,7 @@
     <t>H48</t>
   </si>
   <si>
-    <t>2.008.006.002</t>
+    <t>8.6.2</t>
   </si>
   <si>
     <t>Setup Netting Agreement</t>
@@ -8578,7 +8578,7 @@
     <t>H49</t>
   </si>
   <si>
-    <t>2.008.006.003</t>
+    <t>8.6.3</t>
   </si>
   <si>
     <t>AP Run Netting Batch</t>
@@ -8587,7 +8587,7 @@
     <t>H50</t>
   </si>
   <si>
-    <t>2.008.006.004</t>
+    <t>8.6.4</t>
   </si>
   <si>
     <t>AP Print Netting proposal</t>
@@ -8596,7 +8596,7 @@
     <t>H51</t>
   </si>
   <si>
-    <t>2.008.006.005</t>
+    <t>8.6.5</t>
   </si>
   <si>
     <t>AP Modify netting proposal</t>
@@ -8605,7 +8605,7 @@
     <t>H52</t>
   </si>
   <si>
-    <t>2.008.006.006</t>
+    <t>8.6.6</t>
   </si>
   <si>
     <t>AP Perform netting by clearing on netting account</t>
@@ -8614,13 +8614,13 @@
     <t>H53</t>
   </si>
   <si>
-    <t>2.008.006.007</t>
+    <t>8.6.7</t>
   </si>
   <si>
     <t xml:space="preserve">AP Accruals for Non inventory </t>
   </si>
   <si>
-    <t>2.008.007</t>
+    <t>8.7</t>
   </si>
   <si>
     <t>Perform Accounts Payable Month End Close and Reporting</t>
@@ -8629,7 +8629,7 @@
     <t>H54</t>
   </si>
   <si>
-    <t>2.008.007.001</t>
+    <t>8.7.1</t>
   </si>
   <si>
     <t>AP Close Period</t>
@@ -8638,7 +8638,7 @@
     <t>H55</t>
   </si>
   <si>
-    <t>2.008.007.002</t>
+    <t>8.7.2</t>
   </si>
   <si>
     <t>AP Open Period</t>
@@ -8647,7 +8647,7 @@
     <t>H56</t>
   </si>
   <si>
-    <t>2.008.007.003</t>
+    <t>8.7.3</t>
   </si>
   <si>
     <t>AP SLA Create Accounting</t>
@@ -8656,7 +8656,7 @@
     <t>H57</t>
   </si>
   <si>
-    <t>2.008.007.004</t>
+    <t>8.7.4</t>
   </si>
   <si>
     <t>AP SLA Unaccounted Transactions Report</t>
@@ -8665,7 +8665,7 @@
     <t>H59</t>
   </si>
   <si>
-    <t>2.008.007.005</t>
+    <t>8.7.5</t>
   </si>
   <si>
     <t>AP SLA Period Close Exception Report</t>
@@ -8674,7 +8674,7 @@
     <t>H60</t>
   </si>
   <si>
-    <t>2.008.007.006</t>
+    <t>8.7.6</t>
   </si>
   <si>
     <t>AP SLA Journal Entries Report</t>
@@ -8683,7 +8683,7 @@
     <t>H61</t>
   </si>
   <si>
-    <t>2.008.007.007</t>
+    <t>8.7.7</t>
   </si>
   <si>
     <t>AP SLA Account Analysis Report</t>
@@ -8692,7 +8692,7 @@
     <t>H62</t>
   </si>
   <si>
-    <t>2.008.007.008</t>
+    <t>8.7.8</t>
   </si>
   <si>
     <t>AP MEC Trial Balance</t>
@@ -8701,7 +8701,7 @@
     <t>H63</t>
   </si>
   <si>
-    <t>2.008.007.009</t>
+    <t>8.7.9</t>
   </si>
   <si>
     <t>AP MEC Posted Invoice Register</t>
@@ -8710,7 +8710,7 @@
     <t>H64</t>
   </si>
   <si>
-    <t>2.008.007.010</t>
+    <t>8.7.10</t>
   </si>
   <si>
     <t>AP MEC Posted Payments Register</t>
@@ -8719,7 +8719,7 @@
     <t>H65</t>
   </si>
   <si>
-    <t>2.008.007.011</t>
+    <t>8.7.11</t>
   </si>
   <si>
     <t xml:space="preserve">AP MEC Mass Additions Create </t>
@@ -8728,13 +8728,13 @@
     <t>I</t>
   </si>
   <si>
-    <t>2.009</t>
+    <t>9</t>
   </si>
   <si>
     <t>Fixed Assets</t>
   </si>
   <si>
-    <t>2.009.001</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>Create Fixed Assets</t>
@@ -8743,7 +8743,7 @@
     <t>I1</t>
   </si>
   <si>
-    <t>2.009.001.001</t>
+    <t>9.1.1</t>
   </si>
   <si>
     <t>FA Manual addition in the assets workbench</t>
@@ -8752,7 +8752,7 @@
     <t>I2</t>
   </si>
   <si>
-    <t>2.009.001.002</t>
+    <t>9.1.2</t>
   </si>
   <si>
     <t>FA Create a manual CIP Asset</t>
@@ -8761,7 +8761,7 @@
     <t>I4</t>
   </si>
   <si>
-    <t>2.009.001.003</t>
+    <t>9.1.3</t>
   </si>
   <si>
     <t>FA Transfer Manual Assets in the Tax Book - Periodic Mass Copy</t>
@@ -8770,7 +8770,7 @@
     <t>I5</t>
   </si>
   <si>
-    <t>2.009.001.004</t>
+    <t>9.1.4</t>
   </si>
   <si>
     <t>FA Transfer manual assets in the Tax book - periodic mass copy adj required</t>
@@ -8779,7 +8779,7 @@
     <t>I6</t>
   </si>
   <si>
-    <t>2.009.001.005</t>
+    <t>9.1.5</t>
   </si>
   <si>
     <t>FA how to account tax book depreciation in Secondary ledgers</t>
@@ -8788,7 +8788,7 @@
     <t>I7</t>
   </si>
   <si>
-    <t>2.009.001.006</t>
+    <t>9.1.6</t>
   </si>
   <si>
     <t>FA Prepare AP Mass Additions Program</t>
@@ -8797,7 +8797,7 @@
     <t>I8</t>
   </si>
   <si>
-    <t>2.009.001.007</t>
+    <t>9.1.7</t>
   </si>
   <si>
     <t>FA review imported asset lines and perform lines grouping (merge)</t>
@@ -8806,7 +8806,7 @@
     <t>I9</t>
   </si>
   <si>
-    <t>2.009.001.008</t>
+    <t>9.1.8</t>
   </si>
   <si>
     <t>FA review imported asset lines and perform Line addition to an existing asset</t>
@@ -8815,7 +8815,7 @@
     <t>I10</t>
   </si>
   <si>
-    <t>2.009.001.009</t>
+    <t>9.1.9</t>
   </si>
   <si>
     <t>FA Create a CIP Asset from Mass Additions</t>
@@ -8824,7 +8824,7 @@
     <t>I11</t>
   </si>
   <si>
-    <t>2.009.001.010</t>
+    <t>9.1.10</t>
   </si>
   <si>
     <t>FA Launch Post Mass Additions Program</t>
@@ -8833,13 +8833,13 @@
     <t>I24</t>
   </si>
   <si>
-    <t>2.009.001.011</t>
+    <t>9.1.11</t>
   </si>
   <si>
     <t xml:space="preserve">FA Add Credit Memo to an Asset </t>
   </si>
   <si>
-    <t>2.009.002</t>
+    <t>9.2</t>
   </si>
   <si>
     <t>Maintain Fixed Assets</t>
@@ -8848,7 +8848,7 @@
     <t>I12</t>
   </si>
   <si>
-    <t>2.009.002.001</t>
+    <t>9.2.1</t>
   </si>
   <si>
     <t>FA Add values in Assets flexfield</t>
@@ -8857,7 +8857,7 @@
     <t>I13</t>
   </si>
   <si>
-    <t>2.009.002.002</t>
+    <t>9.2.2</t>
   </si>
   <si>
     <t>FA Capitalize a CIP Asset</t>
@@ -8866,7 +8866,7 @@
     <t>I14</t>
   </si>
   <si>
-    <t>2.009.002.003</t>
+    <t>9.2.3</t>
   </si>
   <si>
     <t>FA Change asset locations assignments</t>
@@ -8875,7 +8875,7 @@
     <t>I15</t>
   </si>
   <si>
-    <t>2.009.002.004</t>
+    <t>9.2.4</t>
   </si>
   <si>
     <t>FA Perform Single Retirement</t>
@@ -8884,7 +8884,7 @@
     <t>I16</t>
   </si>
   <si>
-    <t>2.009.002.005</t>
+    <t>9.2.5</t>
   </si>
   <si>
     <t>FA Perform an Asset sales including cost of removal</t>
@@ -8893,13 +8893,13 @@
     <t>I17</t>
   </si>
   <si>
-    <t>2.009.002.006</t>
+    <t>9.2.6</t>
   </si>
   <si>
     <t xml:space="preserve">FA Write off a CIP Asset </t>
   </si>
   <si>
-    <t>2.009.003</t>
+    <t>9.3</t>
   </si>
   <si>
     <t>Process Fixed Assets Depreciation and Perform Period Close</t>
@@ -8908,7 +8908,7 @@
     <t>I18</t>
   </si>
   <si>
-    <t>2.009.003.001</t>
+    <t>9.3.1</t>
   </si>
   <si>
     <t>FA Run Depreciation for all books</t>
@@ -8917,7 +8917,7 @@
     <t>I21</t>
   </si>
   <si>
-    <t>2.009.003.002</t>
+    <t>9.3.2</t>
   </si>
   <si>
     <t xml:space="preserve">FA Create Journals with missing Doc Seq FDE </t>
@@ -8926,13 +8926,13 @@
     <t>J</t>
   </si>
   <si>
-    <t>2.010</t>
+    <t>10</t>
   </si>
   <si>
     <t>General Ledger</t>
   </si>
   <si>
-    <t>2.010.001</t>
+    <t>10.1</t>
   </si>
   <si>
     <t>Maintain General Ledger Masters</t>
@@ -8941,7 +8941,7 @@
     <t>J1</t>
   </si>
   <si>
-    <t>2.010.001.001</t>
+    <t>10.1.1</t>
   </si>
   <si>
     <t>GL Maintain Chart of Accounts</t>
@@ -8950,13 +8950,13 @@
     <t>J4</t>
   </si>
   <si>
-    <t>2.010.001.002</t>
+    <t>10.1.2</t>
   </si>
   <si>
     <t xml:space="preserve">GL Maintain Currency Exchange Rates </t>
   </si>
   <si>
-    <t>2.010.002</t>
+    <t>10.2</t>
   </si>
   <si>
     <t>Process General Ledger Journal Entries</t>
@@ -8965,7 +8965,7 @@
     <t>J5</t>
   </si>
   <si>
-    <t>2.010.002.001</t>
+    <t>10.2.1</t>
   </si>
   <si>
     <t>GL Enter Manual Journal Entry</t>
@@ -8974,7 +8974,7 @@
     <t>J6</t>
   </si>
   <si>
-    <t>2.010.002.002</t>
+    <t>10.2.2</t>
   </si>
   <si>
     <t>GL Copy Existing Journal Entry</t>
@@ -8983,7 +8983,7 @@
     <t>J7</t>
   </si>
   <si>
-    <t>2.010.002.003</t>
+    <t>10.2.3</t>
   </si>
   <si>
     <t>GL Upload Journal Entry via Web ADI</t>
@@ -8992,7 +8992,7 @@
     <t>J9</t>
   </si>
   <si>
-    <t>2.010.002.004</t>
+    <t>10.2.4</t>
   </si>
   <si>
     <t>GL Enter Manual JE in Secondary Ledger</t>
@@ -9001,7 +9001,7 @@
     <t>J10</t>
   </si>
   <si>
-    <t>2.010.002.005</t>
+    <t>10.2.5</t>
   </si>
   <si>
     <t>GL Enter Manual JE adjust in primary Ledger only</t>
@@ -9010,7 +9010,7 @@
     <t>J11</t>
   </si>
   <si>
-    <t>2.010.002.006</t>
+    <t>10.2.6</t>
   </si>
   <si>
     <t>GL Enter GL Journal with Tax Code</t>
@@ -9019,7 +9019,7 @@
     <t>J12</t>
   </si>
   <si>
-    <t>2.010.002.007</t>
+    <t>10.2.7</t>
   </si>
   <si>
     <t>GL Reverse a Single Journal</t>
@@ -9028,13 +9028,13 @@
     <t>J13</t>
   </si>
   <si>
-    <t>2.010.002.008</t>
+    <t>10.2.8</t>
   </si>
   <si>
     <t xml:space="preserve">GL Use Autoreverse Functionality </t>
   </si>
   <si>
-    <t>2.010.003</t>
+    <t>10.3</t>
   </si>
   <si>
     <t>Process General Ledger Month End Close</t>
@@ -9043,7 +9043,7 @@
     <t>J15</t>
   </si>
   <si>
-    <t>2.010.003.001</t>
+    <t>10.3.1</t>
   </si>
   <si>
     <t>GL Run Revaluation for BS Account</t>
@@ -9052,7 +9052,7 @@
     <t>J16</t>
   </si>
   <si>
-    <t>2.010.003.002</t>
+    <t>10.3.2</t>
   </si>
   <si>
     <t>GL Close Period</t>
@@ -9061,7 +9061,7 @@
     <t>J17</t>
   </si>
   <si>
-    <t>2.010.003.003</t>
+    <t>10.3.3</t>
   </si>
   <si>
     <t>GL Open Period</t>
@@ -9070,7 +9070,7 @@
     <t>J18</t>
   </si>
   <si>
-    <t>2.010.003.004</t>
+    <t>10.3.4</t>
   </si>
   <si>
     <t xml:space="preserve">GL Month End Closing Procedures </t>
@@ -9079,13 +9079,13 @@
     <t>K</t>
   </si>
   <si>
-    <t>2.011</t>
+    <t>11</t>
   </si>
   <si>
     <t>Cash Management</t>
   </si>
   <si>
-    <t>2.011.001</t>
+    <t>11.1</t>
   </si>
   <si>
     <t>Perform Cash Management Bank Reconciliation</t>
@@ -9094,7 +9094,7 @@
     <t>K1</t>
   </si>
   <si>
-    <t>2.011.001.001</t>
+    <t>11.1.1</t>
   </si>
   <si>
     <t>CM Load Bank Statements Oct 10</t>
@@ -9103,7 +9103,7 @@
     <t>K7</t>
   </si>
   <si>
-    <t>2.011.001.002</t>
+    <t>11.1.2</t>
   </si>
   <si>
     <t>CM Reconcile manually unreconciled lines</t>
@@ -9112,7 +9112,7 @@
     <t>K8</t>
   </si>
   <si>
-    <t>2.011.001.003</t>
+    <t>11.1.3</t>
   </si>
   <si>
     <t>CM Create manually AR Receipts from Statement Lines Workbench</t>
@@ -9121,7 +9121,7 @@
     <t>K2</t>
   </si>
   <si>
-    <t>2.011.001.004</t>
+    <t>11.1.4</t>
   </si>
   <si>
     <t>CM Bank statement import and reconciliation request set</t>
@@ -9130,7 +9130,7 @@
     <t>K6</t>
   </si>
   <si>
-    <t>2.011.001.005</t>
+    <t>11.1.5</t>
   </si>
   <si>
     <t>CM Run Auto Reconciliation process</t>
@@ -9139,13 +9139,13 @@
     <t>K5</t>
   </si>
   <si>
-    <t>2.011.001.006</t>
+    <t>11.1.6</t>
   </si>
   <si>
     <t xml:space="preserve">CM Purge Bank Statement Interface </t>
   </si>
   <si>
-    <t>2.011.002</t>
+    <t>11.2</t>
   </si>
   <si>
     <t>Cash Management Reports and Forecast</t>
@@ -9154,7 +9154,7 @@
     <t>K10</t>
   </si>
   <si>
-    <t>2.011.002.001</t>
+    <t>11.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">CM Create Forecasting Template </t>
@@ -9163,13 +9163,13 @@
     <t>L</t>
   </si>
   <si>
-    <t>2.012</t>
+    <t>12</t>
   </si>
   <si>
     <t>EBusiness Tax</t>
   </si>
   <si>
-    <t>2.012.001</t>
+    <t>12.1</t>
   </si>
   <si>
     <t>VAT Linked to Order to Cash</t>
@@ -9178,10 +9178,10 @@
     <t>L1</t>
   </si>
   <si>
-    <t>2.012.001.001</t>
-  </si>
-  <si>
-    <t>2.012.002</t>
+    <t>12.1.1</t>
+  </si>
+  <si>
+    <t>12.2</t>
   </si>
   <si>
     <t xml:space="preserve">FER Tax Register Report (Discoverer) </t>
@@ -9190,19 +9190,19 @@
     <t>L2</t>
   </si>
   <si>
-    <t>2.012.002.001</t>
+    <t>12.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">O </t>
   </si>
   <si>
-    <t>2.013</t>
+    <t>13</t>
   </si>
   <si>
     <t>Oracle Generic</t>
   </si>
   <si>
-    <t>2.013.001</t>
+    <t>13.1</t>
   </si>
   <si>
     <t>Applications Login</t>
@@ -9211,13 +9211,13 @@
     <t>O01</t>
   </si>
   <si>
-    <t>2.013.001.001</t>
+    <t>13.1.1</t>
   </si>
   <si>
     <t>Oracle Login and Navigation</t>
   </si>
   <si>
-    <t>2.013.002</t>
+    <t>13.2</t>
   </si>
   <si>
     <t>Reporting</t>
@@ -9226,7 +9226,7 @@
     <t>O02</t>
   </si>
   <si>
-    <t>2.013.002.001</t>
+    <t>13.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">Discoverer Navigation and Basic Custom Report </t>
@@ -9236,6 +9236,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -9279,12 +9282,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9600,7 +9604,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -9608,7 +9612,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -9619,7 +9623,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
@@ -9627,7 +9631,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -9638,7 +9642,7 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
@@ -9649,7 +9653,7 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
@@ -9660,7 +9664,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -9671,7 +9675,7 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
@@ -9679,7 +9683,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
@@ -9690,7 +9694,7 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
@@ -9701,7 +9705,7 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
@@ -9712,7 +9716,7 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
@@ -9723,7 +9727,7 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
@@ -9734,7 +9738,7 @@
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C15" t="s">
@@ -9745,7 +9749,7 @@
       <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="s">
@@ -9756,7 +9760,7 @@
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
@@ -9767,7 +9771,7 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="s">
@@ -9778,7 +9782,7 @@
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C19" t="s">
@@ -9789,7 +9793,7 @@
       <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
@@ -9800,7 +9804,7 @@
       <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
@@ -9811,7 +9815,7 @@
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C22" t="s">
@@ -9822,7 +9826,7 @@
       <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C23" t="s">
@@ -9833,7 +9837,7 @@
       <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C24" t="s">
@@ -9844,7 +9848,7 @@
       <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C25" t="s">
@@ -9852,7 +9856,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C26" t="s">
@@ -9863,7 +9867,7 @@
       <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C27" t="s">
@@ -9871,7 +9875,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C28" t="s">
@@ -9882,7 +9886,7 @@
       <c r="A29" t="s">
         <v>79</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C29" t="s">
@@ -9890,7 +9894,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C30" t="s">
@@ -9901,7 +9905,7 @@
       <c r="A31" t="s">
         <v>84</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C31" t="s">
@@ -9912,7 +9916,7 @@
       <c r="A32" t="s">
         <v>87</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C32" t="s">
@@ -9923,7 +9927,7 @@
       <c r="A33" t="s">
         <v>90</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C33" t="s">
@@ -9931,7 +9935,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C34" t="s">
@@ -9942,7 +9946,7 @@
       <c r="A35" t="s">
         <v>95</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C35" t="s">
@@ -9953,7 +9957,7 @@
       <c r="A36" t="s">
         <v>90</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C36" t="s">
@@ -9964,7 +9968,7 @@
       <c r="A37" t="s">
         <v>100</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C37" t="s">
@@ -9975,7 +9979,7 @@
       <c r="A38" t="s">
         <v>103</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C38" t="s">
@@ -9986,7 +9990,7 @@
       <c r="A39" t="s">
         <v>106</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C39" t="s">
@@ -9997,7 +10001,7 @@
       <c r="A40" t="s">
         <v>109</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C40" t="s">
@@ -10008,7 +10012,7 @@
       <c r="A41" t="s">
         <v>112</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C41" t="s">
@@ -10019,7 +10023,7 @@
       <c r="A42" t="s">
         <v>115</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C42" t="s">
@@ -10027,7 +10031,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C43" t="s">
@@ -10038,7 +10042,7 @@
       <c r="A44" t="s">
         <v>120</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C44" t="s">
@@ -10049,7 +10053,7 @@
       <c r="A45" t="s">
         <v>123</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C45" t="s">
@@ -10060,7 +10064,7 @@
       <c r="A46" t="s">
         <v>126</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C46" t="s">
@@ -10071,7 +10075,7 @@
       <c r="A47" t="s">
         <v>129</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C47" t="s">
@@ -10082,7 +10086,7 @@
       <c r="A48" t="s">
         <v>132</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C48" t="s">
@@ -10093,7 +10097,7 @@
       <c r="A49" t="s">
         <v>135</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C49" t="s">
@@ -10104,7 +10108,7 @@
       <c r="A50" t="s">
         <v>138</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C50" t="s">
@@ -10115,7 +10119,7 @@
       <c r="A51" t="s">
         <v>141</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C51" t="s">
@@ -10126,7 +10130,7 @@
       <c r="A52" t="s">
         <v>144</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C52" t="s">
@@ -10137,7 +10141,7 @@
       <c r="A53" t="s">
         <v>147</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C53" t="s">
@@ -10148,7 +10152,7 @@
       <c r="A54" t="s">
         <v>150</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C54" t="s">
@@ -10156,7 +10160,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C55" t="s">
@@ -10167,7 +10171,7 @@
       <c r="A56" t="s">
         <v>155</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C56" t="s">
@@ -10178,7 +10182,7 @@
       <c r="A57" t="s">
         <v>158</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C57" t="s">
@@ -10189,7 +10193,7 @@
       <c r="A58" t="s">
         <v>161</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C58" t="s">
@@ -10200,7 +10204,7 @@
       <c r="A59" t="s">
         <v>164</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C59" t="s">
@@ -10208,7 +10212,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C60" t="s">
@@ -10219,7 +10223,7 @@
       <c r="A61" t="s">
         <v>169</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C61" t="s">
@@ -10230,7 +10234,7 @@
       <c r="A62" t="s">
         <v>172</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C62" t="s">
@@ -10241,7 +10245,7 @@
       <c r="A63" t="s">
         <v>175</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C63" t="s">
@@ -10252,7 +10256,7 @@
       <c r="A64" t="s">
         <v>178</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C64" t="s">
@@ -10263,7 +10267,7 @@
       <c r="A65" t="s">
         <v>181</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C65" t="s">
@@ -10274,7 +10278,7 @@
       <c r="A66" t="s">
         <v>184</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C66" t="s">
@@ -10285,7 +10289,7 @@
       <c r="A67" t="s">
         <v>187</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C67" t="s">
@@ -10296,7 +10300,7 @@
       <c r="A68" t="s">
         <v>190</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C68" t="s">
@@ -10307,7 +10311,7 @@
       <c r="A69" t="s">
         <v>193</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C69" t="s">
@@ -10318,7 +10322,7 @@
       <c r="A70" t="s">
         <v>196</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C70" t="s">
@@ -10329,7 +10333,7 @@
       <c r="A71" t="s">
         <v>199</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C71" t="s">
@@ -10340,7 +10344,7 @@
       <c r="A72" t="s">
         <v>202</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C72" t="s">
@@ -10351,7 +10355,7 @@
       <c r="A73" t="s">
         <v>205</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C73" t="s">
@@ -10362,7 +10366,7 @@
       <c r="A74" t="s">
         <v>208</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C74" t="s">
@@ -10373,7 +10377,7 @@
       <c r="A75" t="s">
         <v>211</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C75" t="s">
@@ -10384,7 +10388,7 @@
       <c r="A76" t="s">
         <v>214</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C76" t="s">
@@ -10392,7 +10396,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C77" t="s">
@@ -10403,7 +10407,7 @@
       <c r="A78" t="s">
         <v>219</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C78" t="s">
@@ -10414,7 +10418,7 @@
       <c r="A79" t="s">
         <v>222</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C79" t="s">
@@ -10425,7 +10429,7 @@
       <c r="A80" t="s">
         <v>225</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C80" t="s">
@@ -10433,7 +10437,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C81" t="s">
@@ -10444,7 +10448,7 @@
       <c r="A82" t="s">
         <v>230</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C82" t="s">
@@ -10455,7 +10459,7 @@
       <c r="A83" t="s">
         <v>233</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C83" t="s">
@@ -10466,7 +10470,7 @@
       <c r="A84" t="s">
         <v>236</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C84" t="s">
@@ -10477,7 +10481,7 @@
       <c r="A85" t="s">
         <v>239</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C85" t="s">
@@ -10488,7 +10492,7 @@
       <c r="A86" t="s">
         <v>242</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C86" t="s">
@@ -10499,7 +10503,7 @@
       <c r="A87" t="s">
         <v>245</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C87" t="s">
@@ -10510,7 +10514,7 @@
       <c r="A88" t="s">
         <v>248</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C88" t="s">
@@ -10521,7 +10525,7 @@
       <c r="A89" t="s">
         <v>251</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C89" t="s">
@@ -10532,7 +10536,7 @@
       <c r="A90" t="s">
         <v>254</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C90" t="s">
@@ -10543,7 +10547,7 @@
       <c r="A91" t="s">
         <v>257</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C91" t="s">
@@ -10554,7 +10558,7 @@
       <c r="A92" t="s">
         <v>260</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C92" t="s">
@@ -10565,7 +10569,7 @@
       <c r="A93" t="s">
         <v>219</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C93" t="s">
@@ -10576,7 +10580,7 @@
       <c r="A94" t="s">
         <v>265</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>266</v>
       </c>
       <c r="C94" t="s">
@@ -10587,7 +10591,7 @@
       <c r="A95" t="s">
         <v>268</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C95" t="s">
@@ -10595,7 +10599,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C96" t="s">
@@ -10606,7 +10610,7 @@
       <c r="A97" t="s">
         <v>273</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>274</v>
       </c>
       <c r="C97" t="s">
@@ -10617,7 +10621,7 @@
       <c r="A98" t="s">
         <v>276</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>277</v>
       </c>
       <c r="C98" t="s">
@@ -10628,7 +10632,7 @@
       <c r="A99" t="s">
         <v>279</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C99" t="s">
@@ -10639,7 +10643,7 @@
       <c r="A100" t="s">
         <v>282</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C100" t="s">
@@ -10650,7 +10654,7 @@
       <c r="A101" t="s">
         <v>285</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C101" t="s">
@@ -10661,7 +10665,7 @@
       <c r="A102" t="s">
         <v>288</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C102" t="s">
@@ -10672,7 +10676,7 @@
       <c r="A103" t="s">
         <v>291</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C103" t="s">
@@ -10680,7 +10684,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C104" t="s">
@@ -10691,7 +10695,7 @@
       <c r="A105" t="s">
         <v>296</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>297</v>
       </c>
       <c r="C105" t="s">
@@ -10702,7 +10706,7 @@
       <c r="A106" t="s">
         <v>299</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C106" t="s">
@@ -10710,7 +10714,7 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>302</v>
       </c>
       <c r="C107" t="s">
@@ -10721,7 +10725,7 @@
       <c r="A108" t="s">
         <v>304</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>305</v>
       </c>
       <c r="C108" t="s">
@@ -10732,7 +10736,7 @@
       <c r="A109" t="s">
         <v>307</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>308</v>
       </c>
       <c r="C109" t="s">
@@ -10740,7 +10744,7 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>310</v>
       </c>
       <c r="C110" t="s">
@@ -10751,7 +10755,7 @@
       <c r="A111" t="s">
         <v>312</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>313</v>
       </c>
       <c r="C111" t="s">
@@ -10759,7 +10763,7 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>315</v>
       </c>
       <c r="C112" t="s">
@@ -10770,7 +10774,7 @@
       <c r="A113" t="s">
         <v>317</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C113" t="s">
@@ -10781,7 +10785,7 @@
       <c r="A114" t="s">
         <v>320</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>321</v>
       </c>
       <c r="C114" t="s">
@@ -10792,7 +10796,7 @@
       <c r="A115" t="s">
         <v>323</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>324</v>
       </c>
       <c r="C115" t="s">
@@ -10803,7 +10807,7 @@
       <c r="A116" t="s">
         <v>326</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>327</v>
       </c>
       <c r="C116" t="s">
@@ -10814,7 +10818,7 @@
       <c r="A117" t="s">
         <v>329</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C117" t="s">
@@ -10825,7 +10829,7 @@
       <c r="A118" t="s">
         <v>332</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>333</v>
       </c>
       <c r="C118" t="s">
@@ -10836,7 +10840,7 @@
       <c r="A119" t="s">
         <v>335</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C119" t="s">
@@ -10847,7 +10851,7 @@
       <c r="A120" t="s">
         <v>338</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>339</v>
       </c>
       <c r="C120" t="s">
@@ -10858,7 +10862,7 @@
       <c r="A121" t="s">
         <v>341</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>342</v>
       </c>
       <c r="C121" t="s">
@@ -10869,7 +10873,7 @@
       <c r="A122" t="s">
         <v>344</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C122" t="s">
@@ -10880,7 +10884,7 @@
       <c r="A123" t="s">
         <v>347</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C123" t="s">
@@ -10888,7 +10892,7 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C124" t="s">
@@ -10899,7 +10903,7 @@
       <c r="A125" t="s">
         <v>352</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>353</v>
       </c>
       <c r="C125" t="s">
@@ -10907,7 +10911,7 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>355</v>
       </c>
       <c r="C126" t="s">
@@ -10918,7 +10922,7 @@
       <c r="A127" t="s">
         <v>357</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>358</v>
       </c>
       <c r="C127" t="s">
@@ -10929,7 +10933,7 @@
       <c r="A128" t="s">
         <v>360</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>361</v>
       </c>
       <c r="C128" t="s">
@@ -10937,7 +10941,7 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>363</v>
       </c>
       <c r="C129" t="s">
@@ -10948,7 +10952,7 @@
       <c r="A130" t="s">
         <v>365</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>366</v>
       </c>
       <c r="C130" t="s">
@@ -10959,7 +10963,7 @@
       <c r="A131" t="s">
         <v>368</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>369</v>
       </c>
       <c r="C131" t="s">
@@ -10970,7 +10974,7 @@
       <c r="A132" t="s">
         <v>371</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>372</v>
       </c>
       <c r="C132" t="s">
@@ -10981,7 +10985,7 @@
       <c r="A133" t="s">
         <v>374</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>375</v>
       </c>
       <c r="C133" t="s">
@@ -10992,7 +10996,7 @@
       <c r="A134" t="s">
         <v>377</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>378</v>
       </c>
       <c r="C134" t="s">
@@ -11003,7 +11007,7 @@
       <c r="A135" t="s">
         <v>380</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>381</v>
       </c>
       <c r="C135" t="s">
@@ -11011,7 +11015,7 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>383</v>
       </c>
       <c r="C136" t="s">
@@ -11022,7 +11026,7 @@
       <c r="A137" t="s">
         <v>385</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>386</v>
       </c>
       <c r="C137" t="s">
@@ -11033,7 +11037,7 @@
       <c r="A138" t="s">
         <v>388</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>389</v>
       </c>
       <c r="C138" t="s">
@@ -11044,7 +11048,7 @@
       <c r="A139" t="s">
         <v>391</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>392</v>
       </c>
       <c r="C139" t="s">
@@ -11055,7 +11059,7 @@
       <c r="A140" t="s">
         <v>394</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>395</v>
       </c>
       <c r="C140" t="s">
@@ -11066,7 +11070,7 @@
       <c r="A141" t="s">
         <v>397</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C141" t="s">
@@ -11077,7 +11081,7 @@
       <c r="A142" t="s">
         <v>400</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>401</v>
       </c>
       <c r="C142" t="s">
@@ -11088,7 +11092,7 @@
       <c r="A143" t="s">
         <v>403</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>404</v>
       </c>
       <c r="C143" t="s">
@@ -11099,7 +11103,7 @@
       <c r="A144" t="s">
         <v>406</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>407</v>
       </c>
       <c r="C144" t="s">
@@ -11110,7 +11114,7 @@
       <c r="A145" t="s">
         <v>409</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>410</v>
       </c>
       <c r="C145" t="s">
@@ -11118,7 +11122,7 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>412</v>
       </c>
       <c r="C146" t="s">
@@ -11129,7 +11133,7 @@
       <c r="A147" t="s">
         <v>414</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>415</v>
       </c>
       <c r="C147" t="s">
@@ -11140,7 +11144,7 @@
       <c r="A148" t="s">
         <v>417</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>418</v>
       </c>
       <c r="C148" t="s">
@@ -11151,7 +11155,7 @@
       <c r="A149" t="s">
         <v>420</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>421</v>
       </c>
       <c r="C149" t="s">
@@ -11162,7 +11166,7 @@
       <c r="A150" t="s">
         <v>423</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>424</v>
       </c>
       <c r="C150" t="s">
@@ -11173,7 +11177,7 @@
       <c r="A151" t="s">
         <v>426</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>427</v>
       </c>
       <c r="C151" t="s">
@@ -11181,7 +11185,7 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>429</v>
       </c>
       <c r="C152" t="s">
@@ -11192,7 +11196,7 @@
       <c r="A153" t="s">
         <v>431</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>432</v>
       </c>
       <c r="C153" t="s">
@@ -11203,7 +11207,7 @@
       <c r="A154" t="s">
         <v>434</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>435</v>
       </c>
       <c r="C154" t="s">
@@ -11214,7 +11218,7 @@
       <c r="A155" t="s">
         <v>437</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>438</v>
       </c>
       <c r="C155" t="s">
@@ -11225,7 +11229,7 @@
       <c r="A156" t="s">
         <v>440</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>441</v>
       </c>
       <c r="C156" t="s">
@@ -11236,7 +11240,7 @@
       <c r="A157" t="s">
         <v>443</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>444</v>
       </c>
       <c r="C157" t="s">
@@ -11247,7 +11251,7 @@
       <c r="A158" t="s">
         <v>446</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>447</v>
       </c>
       <c r="C158" t="s">
@@ -11258,7 +11262,7 @@
       <c r="A159" t="s">
         <v>449</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>450</v>
       </c>
       <c r="C159" t="s">
@@ -11266,7 +11270,7 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>452</v>
       </c>
       <c r="C160" t="s">
@@ -11274,7 +11278,7 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C161" t="s">
@@ -11285,7 +11289,7 @@
       <c r="A162" t="s">
         <v>456</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>457</v>
       </c>
       <c r="C162" t="s">
@@ -11296,7 +11300,7 @@
       <c r="A163" t="s">
         <v>459</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="3" t="s">
         <v>460</v>
       </c>
       <c r="C163" t="s">
@@ -11307,7 +11311,7 @@
       <c r="A164" t="s">
         <v>462</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>463</v>
       </c>
       <c r="C164" t="s">
@@ -11318,7 +11322,7 @@
       <c r="A165" t="s">
         <v>465</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>466</v>
       </c>
       <c r="C165" t="s">
@@ -11329,7 +11333,7 @@
       <c r="A166" t="s">
         <v>468</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="3" t="s">
         <v>469</v>
       </c>
       <c r="C166" t="s">
@@ -11340,7 +11344,7 @@
       <c r="A167" t="s">
         <v>417</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>471</v>
       </c>
       <c r="C167" t="s">
@@ -11351,7 +11355,7 @@
       <c r="A168" t="s">
         <v>473</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>474</v>
       </c>
       <c r="C168" t="s">
@@ -11359,7 +11363,7 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>476</v>
       </c>
       <c r="C169" t="s">
@@ -11370,7 +11374,7 @@
       <c r="A170" t="s">
         <v>478</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>479</v>
       </c>
       <c r="C170" t="s">
@@ -11381,7 +11385,7 @@
       <c r="A171" t="s">
         <v>481</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>482</v>
       </c>
       <c r="C171" t="s">
@@ -11392,7 +11396,7 @@
       <c r="A172" t="s">
         <v>484</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C172" t="s">
@@ -11403,7 +11407,7 @@
       <c r="A173" t="s">
         <v>487</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>488</v>
       </c>
       <c r="C173" t="s">
@@ -11414,7 +11418,7 @@
       <c r="A174" t="s">
         <v>490</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>491</v>
       </c>
       <c r="C174" t="s">
@@ -11425,7 +11429,7 @@
       <c r="A175" t="s">
         <v>493</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>494</v>
       </c>
       <c r="C175" t="s">
@@ -11436,7 +11440,7 @@
       <c r="A176" t="s">
         <v>496</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>497</v>
       </c>
       <c r="C176" t="s">
@@ -11447,7 +11451,7 @@
       <c r="A177" t="s">
         <v>499</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>500</v>
       </c>
       <c r="C177" t="s">
@@ -11455,7 +11459,7 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>502</v>
       </c>
       <c r="C178" t="s">
@@ -11466,7 +11470,7 @@
       <c r="A179" t="s">
         <v>504</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>505</v>
       </c>
       <c r="C179" t="s">
@@ -11477,7 +11481,7 @@
       <c r="A180" t="s">
         <v>507</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>508</v>
       </c>
       <c r="C180" t="s">
@@ -11488,7 +11492,7 @@
       <c r="A181" t="s">
         <v>510</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>511</v>
       </c>
       <c r="C181" t="s">
@@ -11499,7 +11503,7 @@
       <c r="A182" t="s">
         <v>513</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>514</v>
       </c>
       <c r="C182" t="s">
@@ -11510,7 +11514,7 @@
       <c r="A183" t="s">
         <v>516</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>517</v>
       </c>
       <c r="C183" t="s">
@@ -11521,7 +11525,7 @@
       <c r="A184" t="s">
         <v>519</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>520</v>
       </c>
       <c r="C184" t="s">
@@ -11532,7 +11536,7 @@
       <c r="A185" t="s">
         <v>522</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>523</v>
       </c>
       <c r="C185" t="s">
@@ -11543,7 +11547,7 @@
       <c r="A186" t="s">
         <v>525</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>526</v>
       </c>
       <c r="C186" t="s">
@@ -11554,7 +11558,7 @@
       <c r="A187" t="s">
         <v>528</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>529</v>
       </c>
       <c r="C187" t="s">
@@ -11565,7 +11569,7 @@
       <c r="A188" t="s">
         <v>531</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>532</v>
       </c>
       <c r="C188" t="s">
@@ -11573,7 +11577,7 @@
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>534</v>
       </c>
       <c r="C189" t="s">
@@ -11584,7 +11588,7 @@
       <c r="A190" t="s">
         <v>536</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>537</v>
       </c>
       <c r="C190" t="s">
@@ -11595,7 +11599,7 @@
       <c r="A191" t="s">
         <v>539</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>540</v>
       </c>
       <c r="C191" t="s">
@@ -11603,7 +11607,7 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>542</v>
       </c>
       <c r="C192" t="s">
@@ -11614,7 +11618,7 @@
       <c r="A193" t="s">
         <v>544</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>545</v>
       </c>
       <c r="C193" t="s">
@@ -11625,7 +11629,7 @@
       <c r="A194" t="s">
         <v>547</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>548</v>
       </c>
       <c r="C194" t="s">
@@ -11636,7 +11640,7 @@
       <c r="A195" t="s">
         <v>550</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>551</v>
       </c>
       <c r="C195" t="s">
@@ -11647,7 +11651,7 @@
       <c r="A196" t="s">
         <v>553</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>554</v>
       </c>
       <c r="C196" t="s">
@@ -11658,7 +11662,7 @@
       <c r="A197" t="s">
         <v>556</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>557</v>
       </c>
       <c r="C197" t="s">
@@ -11669,7 +11673,7 @@
       <c r="A198" t="s">
         <v>559</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>560</v>
       </c>
       <c r="C198" t="s">
@@ -11677,7 +11681,7 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>562</v>
       </c>
       <c r="C199" t="s">
@@ -11688,7 +11692,7 @@
       <c r="A200" t="s">
         <v>564</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>565</v>
       </c>
       <c r="C200" t="s">
@@ -11699,7 +11703,7 @@
       <c r="A201" t="s">
         <v>567</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>568</v>
       </c>
       <c r="C201" t="s">
@@ -11710,7 +11714,7 @@
       <c r="A202" t="s">
         <v>570</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>571</v>
       </c>
       <c r="C202" t="s">
@@ -11721,7 +11725,7 @@
       <c r="A203" t="s">
         <v>573</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>574</v>
       </c>
       <c r="C203" t="s">
@@ -11732,7 +11736,7 @@
       <c r="A204" t="s">
         <v>576</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>577</v>
       </c>
       <c r="C204" t="s">
@@ -11740,7 +11744,7 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>579</v>
       </c>
       <c r="C205" t="s">
@@ -11751,7 +11755,7 @@
       <c r="A206" t="s">
         <v>581</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>582</v>
       </c>
       <c r="C206" t="s">
@@ -11762,7 +11766,7 @@
       <c r="A207" t="s">
         <v>584</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>585</v>
       </c>
       <c r="C207" t="s">
@@ -11773,7 +11777,7 @@
       <c r="A208" t="s">
         <v>587</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>588</v>
       </c>
       <c r="C208" t="s">
@@ -11781,7 +11785,7 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>590</v>
       </c>
       <c r="C209" t="s">
@@ -11792,7 +11796,7 @@
       <c r="A210" t="s">
         <v>592</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>593</v>
       </c>
       <c r="C210" t="s">
@@ -11803,7 +11807,7 @@
       <c r="A211" t="s">
         <v>595</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>596</v>
       </c>
       <c r="C211" t="s">
@@ -11811,7 +11815,7 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>598</v>
       </c>
       <c r="C212" t="s">
@@ -11822,7 +11826,7 @@
       <c r="A213" t="s">
         <v>600</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>601</v>
       </c>
       <c r="C213" t="s">
@@ -11833,7 +11837,7 @@
       <c r="A214" t="s">
         <v>603</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>604</v>
       </c>
       <c r="C214" t="s">
@@ -11844,7 +11848,7 @@
       <c r="A215" t="s">
         <v>606</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>607</v>
       </c>
       <c r="C215" t="s">
@@ -11855,7 +11859,7 @@
       <c r="A216" t="s">
         <v>609</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>610</v>
       </c>
       <c r="C216" t="s">
@@ -11866,7 +11870,7 @@
       <c r="A217" t="s">
         <v>612</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>613</v>
       </c>
       <c r="C217" t="s">
@@ -11877,7 +11881,7 @@
       <c r="A218" t="s">
         <v>615</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>616</v>
       </c>
       <c r="C218" t="s">
@@ -11888,7 +11892,7 @@
       <c r="A219" t="s">
         <v>618</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>619</v>
       </c>
       <c r="C219" t="s">
@@ -11896,7 +11900,7 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="B220" t="s">
+      <c r="B220" s="3" t="s">
         <v>621</v>
       </c>
       <c r="C220" t="s">
@@ -11907,7 +11911,7 @@
       <c r="A221" t="s">
         <v>623</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>624</v>
       </c>
       <c r="C221" t="s">
@@ -11918,7 +11922,7 @@
       <c r="A222" t="s">
         <v>626</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C222" t="s">
@@ -11929,7 +11933,7 @@
       <c r="A223" t="s">
         <v>629</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>630</v>
       </c>
       <c r="C223" t="s">
@@ -11940,7 +11944,7 @@
       <c r="A224" t="s">
         <v>632</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="3" t="s">
         <v>633</v>
       </c>
       <c r="C224" t="s">
@@ -11948,7 +11952,7 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>635</v>
       </c>
       <c r="C225" t="s">
@@ -11959,7 +11963,7 @@
       <c r="A226" t="s">
         <v>637</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>638</v>
       </c>
       <c r="C226" t="s">
@@ -11970,7 +11974,7 @@
       <c r="A227" t="s">
         <v>640</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="3" t="s">
         <v>641</v>
       </c>
       <c r="C227" t="s">
@@ -11981,7 +11985,7 @@
       <c r="A228" t="s">
         <v>643</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>644</v>
       </c>
       <c r="C228" t="s">
@@ -11989,7 +11993,7 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="B229" t="s">
+      <c r="B229" s="3" t="s">
         <v>646</v>
       </c>
       <c r="C229" t="s">
@@ -12000,7 +12004,7 @@
       <c r="A230" t="s">
         <v>648</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>649</v>
       </c>
       <c r="C230" t="s">
@@ -12011,7 +12015,7 @@
       <c r="A231" t="s">
         <v>651</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="3" t="s">
         <v>652</v>
       </c>
       <c r="C231" t="s">
@@ -12022,7 +12026,7 @@
       <c r="A232" t="s">
         <v>654</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>655</v>
       </c>
       <c r="C232" t="s">
@@ -12033,7 +12037,7 @@
       <c r="A233" t="s">
         <v>657</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="3" t="s">
         <v>658</v>
       </c>
       <c r="C233" t="s">
@@ -12044,7 +12048,7 @@
       <c r="A234" t="s">
         <v>660</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>661</v>
       </c>
       <c r="C234" t="s">
@@ -12052,7 +12056,7 @@
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="B235" t="s">
+      <c r="B235" s="3" t="s">
         <v>663</v>
       </c>
       <c r="C235" t="s">
@@ -12063,7 +12067,7 @@
       <c r="A236" t="s">
         <v>665</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C236" t="s">
@@ -12074,7 +12078,7 @@
       <c r="A237" t="s">
         <v>668</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="3" t="s">
         <v>669</v>
       </c>
       <c r="C237" t="s">
@@ -12082,7 +12086,7 @@
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="B238" t="s">
+      <c r="B238" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C238" t="s">
@@ -12093,7 +12097,7 @@
       <c r="A239" t="s">
         <v>673</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="3" t="s">
         <v>674</v>
       </c>
       <c r="C239" t="s">
@@ -12104,7 +12108,7 @@
       <c r="A240" t="s">
         <v>676</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="3" t="s">
         <v>677</v>
       </c>
       <c r="C240" t="s">
@@ -12115,7 +12119,7 @@
       <c r="A241" t="s">
         <v>556</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="3" t="s">
         <v>679</v>
       </c>
       <c r="C241" t="s">
@@ -12123,7 +12127,7 @@
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="B242" t="s">
+      <c r="B242" s="3" t="s">
         <v>681</v>
       </c>
       <c r="C242" t="s">
@@ -12134,7 +12138,7 @@
       <c r="A243" t="s">
         <v>683</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="3" t="s">
         <v>684</v>
       </c>
       <c r="C243" t="s">
@@ -12145,7 +12149,7 @@
       <c r="A244" t="s">
         <v>686</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="3" t="s">
         <v>687</v>
       </c>
       <c r="C244" t="s">
@@ -12156,7 +12160,7 @@
       <c r="A245" t="s">
         <v>689</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="3" t="s">
         <v>690</v>
       </c>
       <c r="C245" t="s">
@@ -12164,7 +12168,7 @@
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="B246" t="s">
+      <c r="B246" s="3" t="s">
         <v>692</v>
       </c>
       <c r="C246" t="s">
@@ -12175,7 +12179,7 @@
       <c r="A247" t="s">
         <v>694</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="3" t="s">
         <v>695</v>
       </c>
       <c r="C247" t="s">
@@ -12183,7 +12187,7 @@
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="B248" t="s">
+      <c r="B248" s="3" t="s">
         <v>697</v>
       </c>
       <c r="C248" t="s">
@@ -12194,7 +12198,7 @@
       <c r="A249" t="s">
         <v>699</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="3" t="s">
         <v>700</v>
       </c>
       <c r="C249" t="s">
@@ -12205,7 +12209,7 @@
       <c r="A250" t="s">
         <v>702</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="3" t="s">
         <v>703</v>
       </c>
       <c r="C250" t="s">
@@ -12216,7 +12220,7 @@
       <c r="A251" t="s">
         <v>705</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="3" t="s">
         <v>706</v>
       </c>
       <c r="C251" t="s">
@@ -12227,7 +12231,7 @@
       <c r="A252" t="s">
         <v>708</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C252" t="s">
@@ -12235,7 +12239,7 @@
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="B253" t="s">
+      <c r="B253" s="3" t="s">
         <v>711</v>
       </c>
       <c r="C253" t="s">
@@ -12246,7 +12250,7 @@
       <c r="A254" t="s">
         <v>713</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="3" t="s">
         <v>714</v>
       </c>
       <c r="C254" t="s">
@@ -12257,7 +12261,7 @@
       <c r="A255" t="s">
         <v>716</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="3" t="s">
         <v>717</v>
       </c>
       <c r="C255" t="s">
@@ -12268,7 +12272,7 @@
       <c r="A256" t="s">
         <v>719</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="3" t="s">
         <v>720</v>
       </c>
       <c r="C256" t="s">
@@ -12279,7 +12283,7 @@
       <c r="A257" t="s">
         <v>722</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="3" t="s">
         <v>723</v>
       </c>
       <c r="C257" t="s">
@@ -12287,7 +12291,7 @@
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="B258" t="s">
+      <c r="B258" s="3" t="s">
         <v>725</v>
       </c>
       <c r="C258" t="s">
@@ -12298,7 +12302,7 @@
       <c r="A259" t="s">
         <v>727</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="3" t="s">
         <v>728</v>
       </c>
       <c r="C259" t="s">
@@ -12309,7 +12313,7 @@
       <c r="A260" t="s">
         <v>730</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="3" t="s">
         <v>731</v>
       </c>
       <c r="C260" t="s">
@@ -12320,7 +12324,7 @@
       <c r="A261" t="s">
         <v>733</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="3" t="s">
         <v>734</v>
       </c>
       <c r="C261" t="s">
@@ -12331,7 +12335,7 @@
       <c r="A262" t="s">
         <v>736</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>737</v>
       </c>
       <c r="C262" t="s">
@@ -12339,7 +12343,7 @@
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="B263" t="s">
+      <c r="B263" s="3" t="s">
         <v>739</v>
       </c>
       <c r="C263" t="s">
@@ -12350,7 +12354,7 @@
       <c r="A264" t="s">
         <v>741</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="3" t="s">
         <v>742</v>
       </c>
       <c r="C264" t="s">
@@ -12358,7 +12362,7 @@
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="B265" t="s">
+      <c r="B265" s="3" t="s">
         <v>744</v>
       </c>
       <c r="C265" t="s">
@@ -12369,7 +12373,7 @@
       <c r="A266" t="s">
         <v>746</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="3" t="s">
         <v>747</v>
       </c>
       <c r="C266" t="s">
@@ -12380,7 +12384,7 @@
       <c r="A267" t="s">
         <v>749</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="3" t="s">
         <v>750</v>
       </c>
       <c r="C267" t="s">
@@ -12391,7 +12395,7 @@
       <c r="A268" t="s">
         <v>752</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="3" t="s">
         <v>753</v>
       </c>
       <c r="C268" t="s">
@@ -12402,7 +12406,7 @@
       <c r="A269" t="s">
         <v>755</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="3" t="s">
         <v>756</v>
       </c>
       <c r="C269" t="s">
@@ -12413,7 +12417,7 @@
       <c r="A270" t="s">
         <v>758</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>759</v>
       </c>
       <c r="C270" t="s">
@@ -12424,7 +12428,7 @@
       <c r="A271" t="s">
         <v>761</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="3" t="s">
         <v>762</v>
       </c>
       <c r="C271" t="s">
@@ -12435,7 +12439,7 @@
       <c r="A272" t="s">
         <v>764</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="3" t="s">
         <v>765</v>
       </c>
       <c r="C272" t="s">
@@ -12446,7 +12450,7 @@
       <c r="A273" t="s">
         <v>767</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>768</v>
       </c>
       <c r="C273" t="s">
@@ -12454,7 +12458,7 @@
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="B274" t="s">
+      <c r="B274" s="3" t="s">
         <v>770</v>
       </c>
       <c r="C274" t="s">
@@ -12465,7 +12469,7 @@
       <c r="A275" t="s">
         <v>772</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="3" t="s">
         <v>773</v>
       </c>
       <c r="C275" t="s">
@@ -12476,7 +12480,7 @@
       <c r="A276" t="s">
         <v>775</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="3" t="s">
         <v>776</v>
       </c>
       <c r="C276" t="s">
@@ -12487,7 +12491,7 @@
       <c r="A277" t="s">
         <v>778</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="3" t="s">
         <v>779</v>
       </c>
       <c r="C277" t="s">
@@ -12498,7 +12502,7 @@
       <c r="A278" t="s">
         <v>781</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="3" t="s">
         <v>782</v>
       </c>
       <c r="C278" t="s">
@@ -12509,7 +12513,7 @@
       <c r="A279" t="s">
         <v>784</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="3" t="s">
         <v>785</v>
       </c>
       <c r="C279" t="s">
@@ -12520,7 +12524,7 @@
       <c r="A280" t="s">
         <v>787</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="3" t="s">
         <v>788</v>
       </c>
       <c r="C280" t="s">
@@ -12528,7 +12532,7 @@
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="B281" t="s">
+      <c r="B281" s="3" t="s">
         <v>790</v>
       </c>
       <c r="C281" t="s">
@@ -12539,7 +12543,7 @@
       <c r="A282" t="s">
         <v>792</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="3" t="s">
         <v>793</v>
       </c>
       <c r="C282" t="s">
@@ -12550,7 +12554,7 @@
       <c r="A283" t="s">
         <v>795</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C283" t="s">
@@ -12561,7 +12565,7 @@
       <c r="A284" t="s">
         <v>798</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C284" t="s">
@@ -12572,7 +12576,7 @@
       <c r="A285" t="s">
         <v>801</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C285" t="s">
@@ -12583,7 +12587,7 @@
       <c r="A286" t="s">
         <v>804</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C286" t="s">
@@ -12594,7 +12598,7 @@
       <c r="A287" t="s">
         <v>807</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C287" t="s">
@@ -12605,7 +12609,7 @@
       <c r="A288" t="s">
         <v>810</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C288" t="s">
@@ -12616,7 +12620,7 @@
       <c r="A289" t="s">
         <v>813</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="3" t="s">
         <v>814</v>
       </c>
       <c r="C289" t="s">
@@ -12627,7 +12631,7 @@
       <c r="A290" t="s">
         <v>816</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="3" t="s">
         <v>817</v>
       </c>
       <c r="C290" t="s">
@@ -12638,7 +12642,7 @@
       <c r="A291" t="s">
         <v>819</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="3" t="s">
         <v>820</v>
       </c>
       <c r="C291" t="s">
@@ -12649,7 +12653,7 @@
       <c r="A292" t="s">
         <v>822</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="3" t="s">
         <v>823</v>
       </c>
       <c r="C292" t="s">
@@ -12660,7 +12664,7 @@
       <c r="A293" t="s">
         <v>825</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="3" t="s">
         <v>826</v>
       </c>
       <c r="C293" t="s">
@@ -12671,7 +12675,7 @@
       <c r="A294" t="s">
         <v>828</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="3" t="s">
         <v>829</v>
       </c>
       <c r="C294" t="s">
@@ -12682,7 +12686,7 @@
       <c r="A295" t="s">
         <v>831</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="3" t="s">
         <v>832</v>
       </c>
       <c r="C295" t="s">
@@ -12693,7 +12697,7 @@
       <c r="A296" t="s">
         <v>834</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="3" t="s">
         <v>835</v>
       </c>
       <c r="C296" t="s">
@@ -12704,7 +12708,7 @@
       <c r="A297" t="s">
         <v>837</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="3" t="s">
         <v>838</v>
       </c>
       <c r="C297" t="s">
@@ -12715,7 +12719,7 @@
       <c r="A298" t="s">
         <v>840</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="3" t="s">
         <v>841</v>
       </c>
       <c r="C298" t="s">
@@ -12726,7 +12730,7 @@
       <c r="A299" t="s">
         <v>843</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="3" t="s">
         <v>844</v>
       </c>
       <c r="C299" t="s">
@@ -12737,7 +12741,7 @@
       <c r="A300" t="s">
         <v>846</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="3" t="s">
         <v>847</v>
       </c>
       <c r="C300" t="s">
@@ -12745,7 +12749,7 @@
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="B301" t="s">
+      <c r="B301" s="3" t="s">
         <v>849</v>
       </c>
       <c r="C301" t="s">
@@ -12756,7 +12760,7 @@
       <c r="A302" t="s">
         <v>851</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="3" t="s">
         <v>852</v>
       </c>
       <c r="C302" t="s">
@@ -12767,7 +12771,7 @@
       <c r="A303" t="s">
         <v>854</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="3" t="s">
         <v>855</v>
       </c>
       <c r="C303" t="s">
@@ -12778,7 +12782,7 @@
       <c r="A304" t="s">
         <v>857</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="3" t="s">
         <v>858</v>
       </c>
       <c r="C304" t="s">
@@ -12789,7 +12793,7 @@
       <c r="A305" t="s">
         <v>860</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="3" t="s">
         <v>861</v>
       </c>
       <c r="C305" t="s">
@@ -12800,7 +12804,7 @@
       <c r="A306" t="s">
         <v>863</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="3" t="s">
         <v>864</v>
       </c>
       <c r="C306" t="s">
@@ -12811,7 +12815,7 @@
       <c r="A307" t="s">
         <v>866</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="3" t="s">
         <v>867</v>
       </c>
       <c r="C307" t="s">
@@ -12819,7 +12823,7 @@
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="B308" t="s">
+      <c r="B308" s="3" t="s">
         <v>869</v>
       </c>
       <c r="C308" t="s">
@@ -12830,7 +12834,7 @@
       <c r="A309" t="s">
         <v>871</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="3" t="s">
         <v>872</v>
       </c>
       <c r="C309" t="s">
@@ -12841,7 +12845,7 @@
       <c r="A310" t="s">
         <v>874</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="3" t="s">
         <v>875</v>
       </c>
       <c r="C310" t="s">
@@ -12852,7 +12856,7 @@
       <c r="A311" t="s">
         <v>877</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="3" t="s">
         <v>878</v>
       </c>
       <c r="C311" t="s">
@@ -12863,7 +12867,7 @@
       <c r="A312" t="s">
         <v>880</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="3" t="s">
         <v>881</v>
       </c>
       <c r="C312" t="s">
@@ -12874,7 +12878,7 @@
       <c r="A313" t="s">
         <v>883</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="3" t="s">
         <v>884</v>
       </c>
       <c r="C313" t="s">
@@ -12885,7 +12889,7 @@
       <c r="A314" t="s">
         <v>886</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="3" t="s">
         <v>887</v>
       </c>
       <c r="C314" t="s">
@@ -12893,7 +12897,7 @@
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="B315" t="s">
+      <c r="B315" s="3" t="s">
         <v>889</v>
       </c>
       <c r="C315" t="s">
@@ -12904,7 +12908,7 @@
       <c r="A316" t="s">
         <v>891</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="3" t="s">
         <v>892</v>
       </c>
       <c r="C316" t="s">
@@ -12915,7 +12919,7 @@
       <c r="A317" t="s">
         <v>894</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="3" t="s">
         <v>895</v>
       </c>
       <c r="C317" t="s">
@@ -12926,7 +12930,7 @@
       <c r="A318" t="s">
         <v>897</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="3" t="s">
         <v>898</v>
       </c>
       <c r="C318" t="s">
@@ -12937,7 +12941,7 @@
       <c r="A319" t="s">
         <v>900</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="3" t="s">
         <v>901</v>
       </c>
       <c r="C319" t="s">
@@ -12945,7 +12949,7 @@
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="B320" t="s">
+      <c r="B320" s="3" t="s">
         <v>903</v>
       </c>
       <c r="C320" t="s">
@@ -12956,7 +12960,7 @@
       <c r="A321" t="s">
         <v>905</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="3" t="s">
         <v>906</v>
       </c>
       <c r="C321" t="s">
@@ -12967,7 +12971,7 @@
       <c r="A322" t="s">
         <v>908</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="3" t="s">
         <v>909</v>
       </c>
       <c r="C322" t="s">
@@ -12978,7 +12982,7 @@
       <c r="A323" t="s">
         <v>911</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="3" t="s">
         <v>912</v>
       </c>
       <c r="C323" t="s">
@@ -12986,7 +12990,7 @@
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="B324" t="s">
+      <c r="B324" s="3" t="s">
         <v>914</v>
       </c>
       <c r="C324" t="s">
@@ -12997,7 +13001,7 @@
       <c r="A325" t="s">
         <v>916</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="3" t="s">
         <v>917</v>
       </c>
       <c r="C325" t="s">
@@ -13008,7 +13012,7 @@
       <c r="A326" t="s">
         <v>919</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="3" t="s">
         <v>920</v>
       </c>
       <c r="C326" t="s">
@@ -13019,7 +13023,7 @@
       <c r="A327" t="s">
         <v>922</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="3" t="s">
         <v>923</v>
       </c>
       <c r="C327" t="s">
@@ -13030,7 +13034,7 @@
       <c r="A328" t="s">
         <v>925</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="3" t="s">
         <v>926</v>
       </c>
       <c r="C328" t="s">
@@ -13041,7 +13045,7 @@
       <c r="A329" t="s">
         <v>928</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="3" t="s">
         <v>929</v>
       </c>
       <c r="C329" t="s">
@@ -13052,7 +13056,7 @@
       <c r="A330" t="s">
         <v>931</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="3" t="s">
         <v>932</v>
       </c>
       <c r="C330" t="s">
@@ -13063,7 +13067,7 @@
       <c r="A331" t="s">
         <v>934</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="3" t="s">
         <v>935</v>
       </c>
       <c r="C331" t="s">
@@ -13074,7 +13078,7 @@
       <c r="A332" t="s">
         <v>937</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="3" t="s">
         <v>938</v>
       </c>
       <c r="C332" t="s">
@@ -13085,7 +13089,7 @@
       <c r="A333" t="s">
         <v>940</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="3" t="s">
         <v>941</v>
       </c>
       <c r="C333" t="s">
@@ -13096,7 +13100,7 @@
       <c r="A334" t="s">
         <v>943</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="3" t="s">
         <v>944</v>
       </c>
       <c r="C334" t="s">
@@ -13107,7 +13111,7 @@
       <c r="A335" t="s">
         <v>946</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="3" t="s">
         <v>947</v>
       </c>
       <c r="C335" t="s">
@@ -13118,7 +13122,7 @@
       <c r="A336" t="s">
         <v>949</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="3" t="s">
         <v>950</v>
       </c>
       <c r="C336" t="s">
@@ -13129,7 +13133,7 @@
       <c r="A337" t="s">
         <v>952</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="3" t="s">
         <v>953</v>
       </c>
       <c r="C337" t="s">
@@ -13140,7 +13144,7 @@
       <c r="A338" t="s">
         <v>955</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="3" t="s">
         <v>956</v>
       </c>
       <c r="C338" t="s">
@@ -13148,7 +13152,7 @@
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="B339" t="s">
+      <c r="B339" s="3" t="s">
         <v>958</v>
       </c>
       <c r="C339" t="s">
@@ -13159,7 +13163,7 @@
       <c r="A340" t="s">
         <v>960</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="3" t="s">
         <v>961</v>
       </c>
       <c r="C340" t="s">
@@ -13170,7 +13174,7 @@
       <c r="A341" t="s">
         <v>963</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="3" t="s">
         <v>964</v>
       </c>
       <c r="C341" t="s">
@@ -13181,7 +13185,7 @@
       <c r="A342" t="s">
         <v>966</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="3" t="s">
         <v>967</v>
       </c>
       <c r="C342" t="s">
@@ -13192,7 +13196,7 @@
       <c r="A343" t="s">
         <v>969</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="3" t="s">
         <v>970</v>
       </c>
       <c r="C343" t="s">
@@ -13203,7 +13207,7 @@
       <c r="A344" t="s">
         <v>972</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="3" t="s">
         <v>973</v>
       </c>
       <c r="C344" t="s">
@@ -13214,7 +13218,7 @@
       <c r="A345" t="s">
         <v>975</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="3" t="s">
         <v>976</v>
       </c>
       <c r="C345" t="s">
@@ -13225,7 +13229,7 @@
       <c r="A346" t="s">
         <v>978</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="3" t="s">
         <v>979</v>
       </c>
       <c r="C346" t="s">
@@ -13236,7 +13240,7 @@
       <c r="A347" t="s">
         <v>981</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="3" t="s">
         <v>982</v>
       </c>
       <c r="C347" t="s">
@@ -13247,7 +13251,7 @@
       <c r="A348" t="s">
         <v>984</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="3" t="s">
         <v>985</v>
       </c>
       <c r="C348" t="s">
@@ -13255,7 +13259,7 @@
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="B349" t="s">
+      <c r="B349" s="3" t="s">
         <v>987</v>
       </c>
       <c r="C349" t="s">
@@ -13266,7 +13270,7 @@
       <c r="A350" t="s">
         <v>989</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="3" t="s">
         <v>990</v>
       </c>
       <c r="C350" t="s">
@@ -13277,7 +13281,7 @@
       <c r="A351" t="s">
         <v>992</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="3" t="s">
         <v>993</v>
       </c>
       <c r="C351" t="s">
@@ -13288,7 +13292,7 @@
       <c r="A352" t="s">
         <v>995</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="3" t="s">
         <v>996</v>
       </c>
       <c r="C352" t="s">
@@ -13299,7 +13303,7 @@
       <c r="A353" t="s">
         <v>998</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="3" t="s">
         <v>999</v>
       </c>
       <c r="C353" t="s">
@@ -13310,7 +13314,7 @@
       <c r="A354" t="s">
         <v>1001</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="3" t="s">
         <v>1002</v>
       </c>
       <c r="C354" t="s">
@@ -13321,7 +13325,7 @@
       <c r="A355" t="s">
         <v>1004</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="3" t="s">
         <v>1005</v>
       </c>
       <c r="C355" t="s">
@@ -13332,7 +13336,7 @@
       <c r="A356" t="s">
         <v>1007</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="3" t="s">
         <v>1008</v>
       </c>
       <c r="C356" t="s">
@@ -13340,7 +13344,7 @@
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="B357" t="s">
+      <c r="B357" s="3" t="s">
         <v>1010</v>
       </c>
       <c r="C357" t="s">
@@ -13351,7 +13355,7 @@
       <c r="A358" t="s">
         <v>1012</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="3" t="s">
         <v>1013</v>
       </c>
       <c r="C358" t="s">
@@ -13362,7 +13366,7 @@
       <c r="A359" t="s">
         <v>1015</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="C359" t="s">
@@ -13373,7 +13377,7 @@
       <c r="A360" t="s">
         <v>1018</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="3" t="s">
         <v>1019</v>
       </c>
       <c r="C360" t="s">
@@ -13384,7 +13388,7 @@
       <c r="A361" t="s">
         <v>1021</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="3" t="s">
         <v>1022</v>
       </c>
       <c r="C361" t="s">
@@ -13395,7 +13399,7 @@
       <c r="A362" t="s">
         <v>1024</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="3" t="s">
         <v>1025</v>
       </c>
       <c r="C362" t="s">
@@ -13406,7 +13410,7 @@
       <c r="A363" t="s">
         <v>1027</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="3" t="s">
         <v>1028</v>
       </c>
       <c r="C363" t="s">
@@ -13417,7 +13421,7 @@
       <c r="A364" t="s">
         <v>1030</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="C364" t="s">
@@ -13428,7 +13432,7 @@
       <c r="A365" t="s">
         <v>1033</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="C365" t="s">
@@ -13439,7 +13443,7 @@
       <c r="A366" t="s">
         <v>1036</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="3" t="s">
         <v>1037</v>
       </c>
       <c r="C366" t="s">
@@ -13450,7 +13454,7 @@
       <c r="A367" t="s">
         <v>1039</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="3" t="s">
         <v>1040</v>
       </c>
       <c r="C367" t="s">
@@ -13461,7 +13465,7 @@
       <c r="A368" t="s">
         <v>1042</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="3" t="s">
         <v>1043</v>
       </c>
       <c r="C368" t="s">
@@ -13472,7 +13476,7 @@
       <c r="A369" t="s">
         <v>1045</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="3" t="s">
         <v>1046</v>
       </c>
       <c r="C369" t="s">
@@ -13480,7 +13484,7 @@
       </c>
     </row>
     <row r="370" spans="1:3">
-      <c r="B370" t="s">
+      <c r="B370" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="C370" t="s">
@@ -13491,7 +13495,7 @@
       <c r="A371" t="s">
         <v>1050</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="3" t="s">
         <v>1051</v>
       </c>
       <c r="C371" t="s">
@@ -13502,7 +13506,7 @@
       <c r="A372" t="s">
         <v>1053</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="3" t="s">
         <v>1054</v>
       </c>
       <c r="C372" t="s">
@@ -13513,7 +13517,7 @@
       <c r="A373" t="s">
         <v>1056</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="3" t="s">
         <v>1057</v>
       </c>
       <c r="C373" t="s">
@@ -13524,7 +13528,7 @@
       <c r="A374" t="s">
         <v>1059</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="3" t="s">
         <v>1060</v>
       </c>
       <c r="C374" t="s">
@@ -13535,7 +13539,7 @@
       <c r="A375" t="s">
         <v>1062</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="3" t="s">
         <v>1063</v>
       </c>
       <c r="C375" t="s">
@@ -13546,7 +13550,7 @@
       <c r="A376" t="s">
         <v>1065</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="3" t="s">
         <v>1066</v>
       </c>
       <c r="C376" t="s">
@@ -13557,7 +13561,7 @@
       <c r="A377" t="s">
         <v>1068</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="C377" t="s">
@@ -13568,7 +13572,7 @@
       <c r="A378" t="s">
         <v>1071</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="3" t="s">
         <v>1072</v>
       </c>
       <c r="C378" t="s">
@@ -13579,7 +13583,7 @@
       <c r="A379" t="s">
         <v>1074</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="3" t="s">
         <v>1075</v>
       </c>
       <c r="C379" t="s">
@@ -13590,7 +13594,7 @@
       <c r="A380" t="s">
         <v>1077</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="C380" t="s">
@@ -13601,7 +13605,7 @@
       <c r="A381" t="s">
         <v>1080</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="3" t="s">
         <v>1081</v>
       </c>
       <c r="C381" t="s">
@@ -13609,7 +13613,7 @@
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="B382" t="s">
+      <c r="B382" s="3" t="s">
         <v>1083</v>
       </c>
       <c r="C382" t="s">
@@ -13620,7 +13624,7 @@
       <c r="A383" t="s">
         <v>1085</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="3" t="s">
         <v>1086</v>
       </c>
       <c r="C383" t="s">
@@ -13631,7 +13635,7 @@
       <c r="A384" t="s">
         <v>1088</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="3" t="s">
         <v>1089</v>
       </c>
       <c r="C384" t="s">
@@ -13642,7 +13646,7 @@
       <c r="A385" t="s">
         <v>1091</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="3" t="s">
         <v>1092</v>
       </c>
       <c r="C385" t="s">
@@ -13653,7 +13657,7 @@
       <c r="A386" t="s">
         <v>1094</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="3" t="s">
         <v>1095</v>
       </c>
       <c r="C386" t="s">
@@ -13664,7 +13668,7 @@
       <c r="A387" t="s">
         <v>1097</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="3" t="s">
         <v>1098</v>
       </c>
       <c r="C387" t="s">
@@ -13675,7 +13679,7 @@
       <c r="A388" t="s">
         <v>1100</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="3" t="s">
         <v>1101</v>
       </c>
       <c r="C388" t="s">
@@ -13683,7 +13687,7 @@
       </c>
     </row>
     <row r="389" spans="1:3">
-      <c r="B389" t="s">
+      <c r="B389" s="3" t="s">
         <v>1103</v>
       </c>
       <c r="C389" t="s">
@@ -13694,7 +13698,7 @@
       <c r="A390" t="s">
         <v>1105</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="3" t="s">
         <v>1106</v>
       </c>
       <c r="C390" t="s">
@@ -13705,7 +13709,7 @@
       <c r="A391" t="s">
         <v>1108</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="3" t="s">
         <v>1109</v>
       </c>
       <c r="C391" t="s">
@@ -13716,7 +13720,7 @@
       <c r="A392" t="s">
         <v>1111</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="3" t="s">
         <v>1112</v>
       </c>
       <c r="C392" t="s">
@@ -13724,7 +13728,7 @@
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="B393" t="s">
+      <c r="B393" s="3" t="s">
         <v>1114</v>
       </c>
       <c r="C393" t="s">
@@ -13735,7 +13739,7 @@
       <c r="A394" t="s">
         <v>1116</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="3" t="s">
         <v>1117</v>
       </c>
       <c r="C394" t="s">
@@ -13746,7 +13750,7 @@
       <c r="A395" t="s">
         <v>1119</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="3" t="s">
         <v>1120</v>
       </c>
       <c r="C395" t="s">
@@ -13754,7 +13758,7 @@
       </c>
     </row>
     <row r="396" spans="1:3">
-      <c r="B396" t="s">
+      <c r="B396" s="3" t="s">
         <v>1122</v>
       </c>
       <c r="C396" t="s">
@@ -13765,7 +13769,7 @@
       <c r="A397" t="s">
         <v>1124</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="3" t="s">
         <v>1125</v>
       </c>
       <c r="C397" t="s">
@@ -13776,7 +13780,7 @@
       <c r="A398" t="s">
         <v>1127</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="3" t="s">
         <v>1128</v>
       </c>
       <c r="C398" t="s">
@@ -13787,7 +13791,7 @@
       <c r="A399" t="s">
         <v>1130</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="3" t="s">
         <v>1131</v>
       </c>
       <c r="C399" t="s">
@@ -13798,7 +13802,7 @@
       <c r="A400" t="s">
         <v>1133</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="3" t="s">
         <v>1134</v>
       </c>
       <c r="C400" t="s">
@@ -13809,7 +13813,7 @@
       <c r="A401" t="s">
         <v>1136</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="3" t="s">
         <v>1137</v>
       </c>
       <c r="C401" t="s">
@@ -13820,7 +13824,7 @@
       <c r="A402" t="s">
         <v>1139</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="3" t="s">
         <v>1140</v>
       </c>
       <c r="C402" t="s">
@@ -13831,7 +13835,7 @@
       <c r="A403" t="s">
         <v>1142</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="3" t="s">
         <v>1143</v>
       </c>
       <c r="C403" t="s">
@@ -13842,7 +13846,7 @@
       <c r="A404" t="s">
         <v>1145</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="3" t="s">
         <v>1146</v>
       </c>
       <c r="C404" t="s">
@@ -13850,7 +13854,7 @@
       </c>
     </row>
     <row r="405" spans="1:3">
-      <c r="B405" t="s">
+      <c r="B405" s="3" t="s">
         <v>1148</v>
       </c>
       <c r="C405" t="s">
@@ -13861,7 +13865,7 @@
       <c r="A406" t="s">
         <v>1150</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="3" t="s">
         <v>1151</v>
       </c>
       <c r="C406" t="s">
@@ -13872,7 +13876,7 @@
       <c r="A407" t="s">
         <v>1153</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="3" t="s">
         <v>1154</v>
       </c>
       <c r="C407" t="s">
@@ -13883,7 +13887,7 @@
       <c r="A408" t="s">
         <v>1156</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="3" t="s">
         <v>1157</v>
       </c>
       <c r="C408" t="s">
@@ -13894,7 +13898,7 @@
       <c r="A409" t="s">
         <v>1159</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="3" t="s">
         <v>1160</v>
       </c>
       <c r="C409" t="s">
@@ -13905,7 +13909,7 @@
       <c r="A410" t="s">
         <v>1162</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="3" t="s">
         <v>1163</v>
       </c>
       <c r="C410" t="s">
@@ -13913,7 +13917,7 @@
       </c>
     </row>
     <row r="411" spans="1:3">
-      <c r="B411" t="s">
+      <c r="B411" s="3" t="s">
         <v>1165</v>
       </c>
       <c r="C411" t="s">
@@ -13924,7 +13928,7 @@
       <c r="A412" t="s">
         <v>1167</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="3" t="s">
         <v>1168</v>
       </c>
       <c r="C412" t="s">
@@ -13935,7 +13939,7 @@
       <c r="A413" t="s">
         <v>1170</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="3" t="s">
         <v>1171</v>
       </c>
       <c r="C413" t="s">
@@ -13946,7 +13950,7 @@
       <c r="A414" t="s">
         <v>1173</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="3" t="s">
         <v>1174</v>
       </c>
       <c r="C414" t="s">
@@ -13957,7 +13961,7 @@
       <c r="A415" t="s">
         <v>1176</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="3" t="s">
         <v>1177</v>
       </c>
       <c r="C415" t="s">
@@ -13968,7 +13972,7 @@
       <c r="A416" t="s">
         <v>1179</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="3" t="s">
         <v>1180</v>
       </c>
       <c r="C416" t="s">
@@ -13979,7 +13983,7 @@
       <c r="A417" t="s">
         <v>1182</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="3" t="s">
         <v>1183</v>
       </c>
       <c r="C417" t="s">
@@ -13987,7 +13991,7 @@
       </c>
     </row>
     <row r="418" spans="1:3">
-      <c r="B418" t="s">
+      <c r="B418" s="3" t="s">
         <v>1185</v>
       </c>
       <c r="C418" t="s">
@@ -13998,7 +14002,7 @@
       <c r="A419" t="s">
         <v>1187</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="3" t="s">
         <v>1188</v>
       </c>
       <c r="C419" t="s">
@@ -14009,7 +14013,7 @@
       <c r="A420" t="s">
         <v>1190</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="3" t="s">
         <v>1191</v>
       </c>
       <c r="C420" t="s">
@@ -14017,7 +14021,7 @@
       </c>
     </row>
     <row r="421" spans="1:3">
-      <c r="B421" t="s">
+      <c r="B421" s="3" t="s">
         <v>1193</v>
       </c>
       <c r="C421" t="s">
@@ -14028,7 +14032,7 @@
       <c r="A422" t="s">
         <v>1195</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="3" t="s">
         <v>1196</v>
       </c>
       <c r="C422" t="s">
@@ -14036,7 +14040,7 @@
       </c>
     </row>
     <row r="423" spans="1:3">
-      <c r="B423" t="s">
+      <c r="B423" s="3" t="s">
         <v>1197</v>
       </c>
       <c r="C423" t="s">
@@ -14047,7 +14051,7 @@
       <c r="A424" t="s">
         <v>1199</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="3" t="s">
         <v>1200</v>
       </c>
       <c r="C424" t="s">
@@ -14058,7 +14062,7 @@
       <c r="A425" t="s">
         <v>1201</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="3" t="s">
         <v>1202</v>
       </c>
       <c r="C425" t="s">
@@ -14066,7 +14070,7 @@
       </c>
     </row>
     <row r="426" spans="1:3">
-      <c r="B426" t="s">
+      <c r="B426" s="3" t="s">
         <v>1204</v>
       </c>
       <c r="C426" t="s">
@@ -14077,7 +14081,7 @@
       <c r="A427" t="s">
         <v>1206</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="3" t="s">
         <v>1207</v>
       </c>
       <c r="C427" t="s">
@@ -14085,7 +14089,7 @@
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="B428" t="s">
+      <c r="B428" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="C428" t="s">
@@ -14096,7 +14100,7 @@
       <c r="A429" t="s">
         <v>1211</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="3" t="s">
         <v>1212</v>
       </c>
       <c r="C429" t="s">
